--- a/data_saved/exact_country_log.xlsx
+++ b/data_saved/exact_country_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2317,13 +2317,15 @@
           <t>https://ninjasuplementos.blogspot.com/?gclid=EAIaIQobChMIyovU48m29gIVCFdgCh1n3AoVEAAYASAAEgI4OPD_BwE</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="A31" t="n">
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2351,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44628.87856002746</v>
+        <v>44628.87856002315</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2378,7 +2380,2464 @@
           <t>https://vwv-kukoiin.net/?id=dip</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.82 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>44628.94931310185</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj-i43t4Lb2AhWEQ2AKHTPMBnsYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1Hd5V6M9ELJ6ajD_4BjrWVmr-Iiw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=X2wnYrvFHcaUr7wP4rqX6Ao&amp;iflsig=AHkkrS4AAAAAYid6b65YcCTDv1k_K2inl_UlqJUQM3Nm&amp;ved=0ahUKEwj78I_r4Lb2AhVGyosBHWLdBa0Q4dUDCAg&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARg0hdoAHAAeAKAAXOIAZkDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.27 Safari/537.36 Edg/96.0.1054.8</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>44628.95049100694</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwigr7yd4bb2AhWJXWAKHc2YBrwYABADGgJ0bQ&amp;ae=2&amp;sig=AOD64_02FCYE4jB7jHyHNMxrzavL5osWsg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=xGwnYoe_EeHcmAXJ8qDQBw&amp;iflsig=AHkkrS4AAAAAYid61BTBnDRGmT9eG1QHFaicewrzSrBh&amp;ved=0ahUKEwiHsZib4bb2AhVhLqYKHUk5CHoQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYOUXaABwAHgBgAFaiAHbApIBATSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; EML-AL00 Build/HUAWEIEML-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>44628.95136407408</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiK5dDB4bb2AhUGt5YKHclUC6AYABAAGgJ0bA&amp;sig=AOD64_2pzgsaoMIPfEz_MDqqyfGsxie2nA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=EG0nYsyGMMaWr7wPkuqniA8&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUANYBWDbF2gAcAB4AoABYogB7QKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Kucoin lets you buy, sell, and store. Official Website. kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.55 Safari/537.36 Edg/96.0.1054.43</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>44628.95220553241</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjR4Pnj4bb2AhXKQ2AKHdWYDLcYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3BrdgaSbo1UVPJ_Txuj-WWQDLxsA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=WG0nYtmjEu2umAXIoKh4&amp;iflsig=AHkkrS4AAAAAYid7aDVFE4qaJVLw4hdfJy2Wb1qDumcK&amp;ved=0ahUKEwjZr-Lh4bb2AhVtF6YKHUgQCg8Q4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYN0XaABwAHgCgAFqiAGVA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>44628.95272871528</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiOj-v54bb2AhVGrpYKHT9rCBYYABAAGgJ0bA&amp;sig=AOD64_2YRm5T1lBGfnMA4UU-i4u_gEQEew&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=hm0nYtKeCIf10ASYhangCA&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUARYB2DYF2gAcAB4AYABrgKIAYoJkgEFMi0zLjGYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 Edg/98.0.1108.56</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>44628.95637572917</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjq65GQ47b2AhW43EwCHdOwDnMYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2KYpH2u-oIYErVTm2cApu5Z36QbQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=wW4nYpaUIszemAWB972wCQ&amp;iflsig=AHkkrS4AAAAAYid80dttWzpP-JCkVogR3UKQ00SSvUjE&amp;ved=0ahUKEwjW-IOO47b2AhVML6YKHYF7D5YQ4dUDCAg&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEUABYBGDXF2gAcAB4A4ABcogBpwOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:91.0) Gecko/20100101 Firefox/91.0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>44628.95689670139</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjoxNGl47b2AhVCTmAKHdfHCPMYABAAGgJ0bQ&amp;sig=AOD64_0evhCAzOiNCKWTP9nMxt8QIPosUA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=7m4nYsKXFbKRr7wP0cc6&amp;iflsig=AHkkrS4AAAAAYid8_szYz6E4jzKPqID96DGq7ZgJRHsD&amp;ved=0ahUKEwjCxrGj47b2AhWyyIsBHdGjDgAQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARg0BdoAHAAeAGAAXOIAZUDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Pixel 5) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/84.0.4147.111 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>44628.95808744213</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjk48PW47b2AhWbwhYFHYAdC_gYABACGgJ0bA&amp;ae=2&amp;sig=AOD64_1L1mMXONDwiOzwG9V3HH3bX83Y2g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=VW8nYrWhF5XemAWlx7vYBg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNgXaABwAHgBgAFbiAHbApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in - Trading Deposit Official Site</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Kucoin the most trusted and secure exchange, Trade simple with maximum security. Kukoin Deposit Official Site。</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://shoptimex.blogspot.com/?gclid=EAIaIQobChMI5OPD1uO29gIVm8IWBR2AHQv4EAAYASAAEgKr-vD_BwE&amp;m=1</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4476.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>44628.95860773148</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiqs-Hr47b2AhVVQWAKHe2JAlEYABABGgJ0bQ&amp;ae=2&amp;sig=AOD64_2mm0t8JIts8v2aHLfodyVx0dzn4g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=gm8nYueGApCFr7wPgOO5oAU&amp;iflsig=AHkkrS4AAAAAYid9kufSdZQ1gypA0aXHR_2gB1YXOywR&amp;ved=0ahUKEwjnz-fp47b2AhWQwosBHYBxDlQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNEXaABwAHgCgAFjiAH4ApIBATSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in - Trading Deposit Official Site</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Kucoin the most trusted and secure exchange, Trade simple with maximum security. Kukoin Deposit Official Site。</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.7113.93 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>44628.95977946759</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi6uqOc5Lb2AhXL1pYKHdZVBtIYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3wUuiOa59s7MSR837_-ck_q37hIA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=528nYpijLcWzmAWA1bHABQ&amp;iflsig=AHkkrS4AAAAAYid990LE5D0QyK-PQB-5p_S0cFp-UkRk&amp;ved=0ahUKEwjYsqea5Lb2AhXFGaYKHYBqDFgQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNoXaABwAHgAgAFriAGPA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in - Trading Deposit Official Site</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Kucoin the most trusted and secure exchange, Trade simple with maximum security. Kukoin Deposit Official Site。</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:98.0) Gecko/20100101 Firefox/98.0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>44628.96030321759</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjA4NGx5Lb2AhVBdGAKHUWVAW4YABAAGgJ0bQ&amp;sig=AOD64_1A1tuD0mt1Cz_QyXcMpuJ04rMgDA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=FHAnYoPoIZTdmAWY546ICA&amp;iflsig=AHkkrS4AAAAAYid-JHg6n-OLXOV_GqGMIRrgjMe-fgCz&amp;ved=0ahUKEwiDwtav5Lb2AhWULqYKHZizA4EQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNwXaABwAHgBgAFuiAGfA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in - Trading Deposit Official Site</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Kucoin the most trusted and secure exchange, Trade simple with maximum security. Kukoin Deposit Official Site。</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) CriOS/92.0.4515.90 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>44628.96114679398</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi1i8zU5Lb2AhULEGAKHWcTBAUYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_211p9tTvt-RIkFRppg2xHt8d1Vxw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=XXAnYvCdMYHemAXs-ZOoBA&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUARYB2DaF2gAcAB4AYABdIgBmQOSAQMyLjKYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36 Edg/99.0.1150.30</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>44628.96265842592</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjWo7uS5bb2AhXYXWAKHbGVDlsYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2XZHgS-Av3XX9EAWzvp_86obycgw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=3nAnYvDVOIWN-Aa-o4D4Cw&amp;iflsig=AHkkrS4AAAAAYid-7sLkWghY6aw-ryKWCHA2_ZjDFhAh&amp;ved=0ahUKEwjwvJaQ5bb2AhWFBt4KHb4RAL8Q4dUDCAg&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWAVg0BdoAHAAeAGAAZoBiAG3BJIBAzAuNJgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign In</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Log in is a secure currency exchange that makes it easier to buy。btenha sua primeira cripto hoje!</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; M2102K1G) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.101 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>44628.96318394676</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiUn7Oo5bb2AhWR0pYKHVeADWsYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2c54IScWXpP3WQ1Hf4SPd72SdxXw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=DHEnYouvLdHEmAWN7YqYAg&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUANYBmDRF2gAcAB4AoABb4gBgQOSAQMzLjGYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 Edg/98.0.1108.56</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>44628.96402643518</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjftpXL5bb2AhWTQ2AKHYGXBbgYABABGgJ0bQ&amp;ae=2&amp;sig=AOD64_0CjkzpcAJOktsZmeOHgtS2XHQ1nQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=VXEnYqf8OpOC0wSVlKrgDg&amp;iflsig=AHkkrS4AAAAAYid_ZWT9XHf8PUvRulTVkXWgJ_byvGdS&amp;ved=0ahUKEwjn-vfI5bb2AhUTwZQKHRWKCuwQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYNkXaABwAHgBgAGLAYgB-QOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; ALP-AL00 Build/HUAWEIALP-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>44628.96453200231</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjz7org5bb2AhUPeSoKHcqoDz4YABABGgJ0bQ&amp;sig=AOD64_1q3YKih5HPm8dZal7WuO0gxBYHIw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=gnEnYqKeH_qEr7wPn-aq-AQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNAXaABwAHgBgAFiiAH9ApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in - Trading Deposit Official Site</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Kucoin the most trusted and secure exchange, Trade simple with maximum security. Kukoin Deposit Official Site。</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://shoptimex.blogspot.com/?gclid=EAIaIQobChMI8-6K4OW29gIVD3kqCh3KqA8-EAAYASAAEgLIc_D_BwE&amp;m=1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4476.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>44628.9650574074</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjf6dT15bb2AhXOXWAKHbc0DO0YABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_1npWvh4WDuG8ii-UnAvG9d0mIKlg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=r3EnYqOlJ8ndmAWFobyYBg&amp;iflsig=AHkkrS4AAAAAYid_v5RI9pgcvtykHvgssqvHGlE7pMMp&amp;ved=0ahUKEwjjuNnz5bb2AhXJLqYKHYUQD2MQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOAXaABwAHgAgAGFAYgB4QOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in - Trading Deposit Official Site</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Kucoin the most trusted and secure exchange, Trade simple with maximum security. Kukoin Deposit Official Site。</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:96.0) Gecko/20100101 Firefox/96.0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>44628.96560335648</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjl1J2M5rb2AhUYVGAKHVcxAZcYABAAGgJ0bQ&amp;sig=AOD64_1YCPfaV8r4fil_nT-ny8TPshZtew&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=3nEnYrLJOeiLr7wPp96jsAs&amp;iflsig=AHkkrS4AAAAAYid_7mEzF6p9m4N2QzPgq4RyoCr3Ai0d&amp;ved=0ahUKEwiysKCK5rb2AhXoxYsBHSfvCLYQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYM8XaABwAHgBgAFkiAH4ApIBAzIuMpgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; zh-cn; BRQ-AN00 Build/HUAWEIBRQ-AN00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/77.0.3865.120 MQQBrowser/11.9 Mobile Safari/537.36 COVC/045717</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>44628.96644335648</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjlgteu5rb2AhUSt5YKHfc3DtwYABAAGgJ0bA&amp;sig=AOD64_0y_8k_VIzR-I5Aw8O3ozZ20BRtxw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=J3InYqnGEsmHr7wPyPWakAc&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUANYB2DeF2gAcAB4AYABZIgBhQOSAQMyLjKYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign In</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Log in is a secure currency exchange that makes it easier to buy。btenha sua primeira cripto hoje!</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4476.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>44628.96730359954</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj0kaTS5rb2AhXFUGAKHa4MA2IYABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_1p9IZtzdyoQkzyqM3BVmHjY0maVw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=cXInYu2SOIeJmAWZtLrgCg&amp;iflsig=AHkkrS4AAAAAYieAgWtZwo7BrOzyjWVu8K-aDZgTzNYR&amp;ved=0ahUKEwitj6vQ5rb2AhWHBKYKHRmaDqwQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYOAXaABwAHgBgAFsiAGWA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>44628.97035321759</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwie26DP57b2AhVDdmAKHR9kCIcYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0wYTohA07chbuXSgX-LiSP5GAkPw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=dnMnYuOBGbTcmAWK6JH4Cg&amp;iflsig=AHkkrS4AAAAAYieBhgZvVTRiRJ-pFco5upOeccbeBm5f&amp;ved=0ahUKEwjjlMbM57b2AhU0LqYKHQp0BK8Q4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNcXaABwAHgCgAF6iAHSA5IBAzAuNJgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in - Platform Secure</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_1 like Mac OS X) AppleWebKit/603.1.30 (KHTML, like Gecko) Version/10.0 Mobile/14E304 Safari/602.1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>44628.9708962963</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj1r83k57b2AhUE2JYKHct0CeUYABAAGgJ0bA&amp;sig=AOD64_0dTsE8egEl8nLrZYVuaZStUEfFfw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=pHMnYvPpNOOTr7wP5qm1qAo&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNcXaABwAHgBgAFWiAHPApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Kucoin - Kucoin Sign Up</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Log In</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>https://lojamundofisio.blogspot.com/?gclid=EAIaIQobChMI9a_N5Oe29gIVBNiWCh3LdAnlEAAYASAAEgIjzfD_BwE&amp;m=1</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:91.0) Gecko/20100101 Firefox/91.0 Waterfox/91.6.0</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>44628.97330297454</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi5hpzJ6Lb2AhVKQWAKHRi3AnkYABABGgJ0bQ&amp;sig=AOD64_3xIVIOrZRdQqEuX3k_UkOURMc1xQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=d3QnYrqREeOGr7wPh_mTuAk&amp;iflsig=AHkkrS4AAAAAYieCh4TurUIcUL0mHs5iRPY78lsL3S9B&amp;ved=0ahUKEwj6qITH6Lb2AhVjw4sBHYf8BJcQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNgXaABwAHgBgAGTAYgBqASSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Kucoin - Kucoin Sign Up - Exchange KuCoin</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Exchange KuCoin。KuCoin is a secure exchange, a simple and secure way to buy, sell and store。</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 Edg/98.0.1108.62</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>44628.97449357639</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjQpsn66Lb2AhXCqZYKHY5JCGEYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1WzntXz4fFMXalrrKaYrpKOqkLJg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=3nQnYrWgN4OVr7wP4t-Q-As&amp;iflsig=AHkkrS4AAAAAYieC7ofN-mlDc0O8RqfDu9VaoQFHvzJV&amp;ved=0ahUKEwi1h7n46Lb2AhWDyosBHeIvBL8Q4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYN8XaABwAHgCgAFfiAHsApIBATSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in - Trading Deposit Official Site</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Kucoin the most trusted and secure exchange, Trade simple with maximum security. Kukoin Deposit Official Site。</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.18 Safari/537.36 Edg/96.0.1054.5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>44628.97501377315</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjUxP-P6bb2AhXQ2EwCHew1AAcYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2EqnX2moqDXtZSjDci7PffFlX5zA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=C3UnYoP1N9yVr7wP-IiJoAY&amp;iflsig=AHkkrS4AAAAAYieDG5JWYyOxZNrtLG5gaHvbegdUBiu9&amp;ved=0ahUKEwjDpvSN6bb2AhXcyosBHXhEAmQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNQXaABwAHgCgAFyiAG0A5IBAzAuNJgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Kucoin - Kucoin Sign Up</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Security Platform Sign In, Join Us</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; moto g(50) Build/RRFS31.Q1-59-76-2; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.159 Mobile Safari/537.36 EdgW/1.0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>44628.97588094907</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjZgp6z6bb2AhVKdmAKHU_6ARUYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2aO2N4Glz3h98z82RCoxW8RJlbgQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=VXUnYoiiMbC1mAXroo7gDQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNUXaABwAHgCgAFaiAHiApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Kucoin - Kucoin Sign Up</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Log In</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>https://lojamundofisio.blogspot.com/?gclid=EAIaIQobChMI2YKes-m29gIVSnZgCh1P-gEVEAAYASAAEgIIL_D_BwE&amp;m=1</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36 Edg/96.0.1054.53</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>44628.97652438658</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjW2vXN6bb2AhUIWmAKHaK5Aq0YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1AxFYyr-Q9BBulZSrWmWpL11r-lg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=i3UnYpDSA4j90ASygrXgDQ&amp;iflsig=AHkkrS4AAAAAYieDm0Yf_7ybwXUQLgxAYkn9FEroV7kZ&amp;ved=0ahUKEwjQw8TK6bb2AhWIPpQKHTJBDdwQ4dUDCAg&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWAVg0RdoAHAAeAKAAdoEiAHREpIBAzUtNJgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; zh-cn; BRQ-AN00 Build/HUAWEIBRQ-AN00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/77.0.3865.120 MQQBrowser/11.9 Mobile Safari/537.36 COVC/045717</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>44628.97704159722</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjm_bXj6bb2AhUNPmAKHagaCqEYABACGgJ0bQ&amp;sig=AOD64_1I0KQAsmAenvBn7v6d7NXWHxg2Ag&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=u3UnYvzABbXCmAX6iYPICg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNEXaABwAHgCgAF_iAHkA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Kucoin - Kucoin Sign Up</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Log In</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>https://lojamundofisio.blogspot.com/?gclid=EAIaIQobChMI5v214-m29gIVDT5gCh2oGgqhEAAYASAAEgLVUfD_BwE&amp;m=1</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.45 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>44628.97760444444</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiZnuD66bb2AhWKQ2AKHeWEB-oYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0gIPQ_zlarH7xZfb10caE88auzCA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=63UnYrvVO7GXr7wPl76t2Aw&amp;iflsig=AHkkrS4AAAAAYieD_CdparYVGB5LSZuuEN1Ffl1-Z9iu&amp;ved=0ahUKEwj79t_46bb2AhWxy4sBHRdfC8sQ4dUDCAg&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARg1RdoAHAAeAGAAd4BiAHVBpIBBTAuMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign Up Access - Welcome To KuCoin Buy Sell</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。Kucoin is a secure exchange。</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.35 Safari/537.36 Edg/96.0.1054.13</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>44628.97813762732</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiJ2JyQ6rb2AhWDJGAKHYpqCNkYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0NMZMCjXY0eRPasfjsD09mz7rE7g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=GHYnYvLcGcKImAXitpPgCA&amp;iflsig=AHkkrS4AAAAAYieEKJqaCcU2LZrFFijbkzQvTVnaNxl_&amp;ved=0ahUKEwjyyPiN6rb2AhVCBKYKHWLbBIwQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYNwXaABwAHgAgAFviAGDA5IBAzMuMZgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Kucoin - Kucoin Sign Up</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Exchange KuCoin。KuCoin is a secure exchange, a simple and secure way to buy, sell and store。</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.2 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>te-IN</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>te-IN</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>44628.97947616898</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwij4N7H6rb2AhVQPmAKHYDgBDcYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1SPdVfV0iDI77A4QwBoHiKRXJMig&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=jXYnYoqoG4q2mAX8mazQBA&amp;iflsig=AHkkrS4AAAAAYieEnfFHWQYzQiWHUdFSVD2iF5pbCpk4&amp;ved=0ahUKEwjKot_F6rb2AhUKG6YKHfwMC0oQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWAVgzBdoAHAAeAKAAXOIAaoDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign Up Access - Welcome To KuCoin Buy Sell</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。Kucoin is a secure exchange。</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>44628.98219956019</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjwvN-367b2AhXLwRYFHTFvDNIYABAAGgJ0bA&amp;sig=AOD64_3rT1qDFeNf1abTbVKALeccD_gtNg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=eHcnYvHzIcremAWfzbj4Aw&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUANYBmDOF2gAcAB4AYABYogB-gKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign Up Access - Welcome To KuCoin Buy Sell</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。Kucoin is a secure exchange。</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>44628.98272454861</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjeu73N67b2AhWXdmAKHZ1JA2EYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0cnsrGQD2XvLN9bgs8dzTwt1raYw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=pXcnYoiJOr3fmAWgx5iwCw&amp;iflsig=AHkkrS4AAAAAYieFtW7_HtdHzNbfXDAhclNUv7YOpRRQ&amp;ved=0ahUKEwjI77_L67b2AhW9L6YKHaAjBrYQ4dUDCAg&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeUABYB2DVF2gAcAB4AoABbogBkAOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?f4a8a71f-3d65-4e58-92d0-11dfb12c1a9c801a368e-5b9a-41e0-862b-e7989539175a</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>44628.98324417824</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjd3Irj67b2AhUt3EwCHRkCBkUYABAAGgJ0bQ&amp;sig=AOD64_23JOsVy1A7b9L6i2AxKkNIQZRCGQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=03cnYqzGGaqImAXkv6e4DA&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUARYB2DNF2gAcAB4AoABbIgBigOSAQMzLjGYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign Up Access - Welcome To KuCoin Buy Sell</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。Kucoin is a secure exchange。</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.1 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>44628.9837629051</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiG07j467b2AhVJVGAKHbGxBBgYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1twf1ULxRRLoTNo-cQcFoWRsMPBA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=AHgnYveCAuOGr7wPh_mTuAk&amp;iflsig=AHkkrS4AAAAAYieGEGjvWgOkmUbmNRfOUq3fAQVHAx9h&amp;ved=0ahUKEwj3grr267b2AhVjw4sBHYf8BJcQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgJYNsXaABwAHgAgAFjiAH0ApIBATSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?bbffa392-c0dc-43ab-8eee-298c142294d15cf00ac5-6e11-4f84-a063-b900c9297e3d</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; SM-M127N) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/80.0.3987.119 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>te-IN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>te-IN</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>44628.98494380787</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiO0vio7Lb2AhVXdmAKHVomAuEYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0uYLpcLi7TTOezhSvOkOdiok_UWw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=ZXgnYv2TN5T90ATco4a4Cw&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlADWApgzhdoAHAAeAKAAVuIAeUCkgEBNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; M2103K19PG) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.101 Mobile Safari/537.3</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>44628.98583116898</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi8-P7M7Lb2AhVQxJYKHSN6CesYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_07xLLTL3Xv9NPadbqR9n9YmQmyAw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=r3gnYtuzMaqImAXkv6e4DA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNEXaABwAHgBgAGbAogB5giSAQMyLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:96.0) Gecko/20100101 Firefox/96.0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>44628.98700841435</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjH-YH-7Lb2AhUUdmAKHaMeBBIYABAAGgJ0bQ&amp;sig=AOD64_1mzU3niPNT4McB17AJeAs3SPEJ6g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=GHknYqWVDtmVr7wPxZC3gA8&amp;iflsig=AHkkrS4AAAAAYieHKMyke0akR-Isyq2AWyR0NSfGn0bV&amp;ved=0ahUKEwilgYj87Lb2AhXZyosBHUXIDfAQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARgxxdoAHAAeAKAAXmIAcYDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign Up Access - Welcome To KuCoin Buy Sell</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。Kucoin is a secure exchange。</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4476.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>44628.98785109954</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwie_-Gg7bb2AhUSdmAKHdi4DkwYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1Pd7J2FHiGp2RbUHzHIf2FO4KgEw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=YHknYryBBqOTr7wP39y6qAQ&amp;iflsig=AHkkrS4AAAAAYieHcM158pgwGYSckNR4n1qzoJPGlTlG&amp;ved=0ahUKEwi8saqe7bb2AhWjyYsBHV-uDkUQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNkXaABwAHgBgAGLAYgB8wOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?bb83c1c0-bfde-4c3f-a832-2228d3afe621de56f320-d570-4766-a84d-57e73836f17c</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_saved/exact_country_log.xlsx
+++ b/data_saved/exact_country_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4837,7 +4837,3409 @@
           <t>https://vvv-kvcoln.site/ucenter/signin?bb83c1c0-bfde-4c3f-a832-2228d3afe621de56f320-d570-4766-a84d-57e73836f17c</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>44628.98914787037</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.googleadservices.com/pagead/aclk?sa=L&amp;ai=DChcSEwjDltfU7bb2AhVG2JYKHbd2BGMYABABGgJ0bA&amp;ae=2&amp;ohost=www.google.com&amp;cid=CAASEuRoj62v6tonmBWa8ngeAS0MFg&amp;sig=AOD64_0MnyvLHB-RqGfFEFtFgHW6TiKp1g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=vHknYrFsh7CYBcrBqSA&amp;iflsig=AHkkrS4AAAAAYieHzBZbhkMXmSwCk-XXMrh4j63Wpy7T&amp;ved=0ahUKEwixupTK7bb2AhUHGKYKHcpgCgQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYM8XaABwAHgAgAGGAYgB_QOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/anuncio/fenix</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.27 Safari/537.36 Edg/96.0.1054.8</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>44628.99015570602</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiittj_7bb2AhWYrZYKHT5eCOkYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2elzMiZUH9mgTlbko7BNgIWXF68g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=J3onYr_yNaqEr7wPud-j-A0&amp;iflsig=AHkkrS4AAAAAYieIN_3yIbND6BnLxHygAkjPYCyictvd&amp;ved=0ahUKEwj_ocz97bb2AhUqwosBHbnvCN8Q4dUDCAg&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARgzxdoAHAAeAGAAWmIAfYCkgEDMy4xmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>KuCoin: Log In Overview - Buy Sell and Margin Invest</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Buy Sell Kucoin。Log in is a secure currency exchange that makes it easier to buy, sell, and store.</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>https://kuceion.com/</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.0 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>44628.99084133102</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjJoe2b7rb2AhUc20wCHac5Cx0YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_34mJbvtSL9-SLgmJX1saLn4t7IEQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=YnonYpvwCZiDr7wPnoKt0Ao&amp;iflsig=AHkkrS4AAAAAYieIch8I-2MWLtlK1NtXjH7zwkdMQGS2&amp;ved=0ahUKEwibqbGZ7rb2AhWYwYsBHR5BC6oQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgIYNYXaABwAHgBgAFwiAGmA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?2e7a7033-1324-41ef-b7ff-7361e220c253f184d5f5-5b19-4b2e-8c42-448936be4609</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; M2102K1G) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.101 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>44628.99145129629</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjUvpO07rb2AhUF10wCHS8xC-MYABABGgJ0bQ&amp;ae=2&amp;sig=AOD64_32nGRCsrzmXrAZwcSmaP_6cbkhAQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=lXonYsOzJYmC0wSPnJqwCQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYP0XaABwAHgBgAGkAYgB_ASSAQMwLjSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign Up Access - Welcome To KuCoin Buy Sell</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。Kucoin is a secure exchange。</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) CriOS/92.0.4515.90 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>44628.99415400463</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjk2rWk77b2AhUu1ZYKHWTSB3UYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2J8C3yf0pMMXP9YaCWMRQPUJI4bg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=gXsnYqmxKtiSr7wPkM2n0AY&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUARYB2DMF2gAcAB4AYABYogB7wKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - Exchang Security - webkuc0in.ml</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ku coin: Log in is a secure currency exchange that makes it easier, loja de ferramentas. gimba material de escritorio, material escritorio online。</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/13.1.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>44628.99577265047</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjj8KDm77b2AhVaWWAKHadGBrQYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_23HI6-EXllPwz06hI0oBtfFfSjjA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=C3wnYtyKBtyEr7wP5bqBuA4&amp;iflsig=AHkkrS4AAAAAYieKG6PyLbLnsP5UysyAmgzu0WkPbhmt&amp;ved=0ahUKEwicvIHk77b2AhVcwosBHWVdAOcQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgHYNMXaABwAHgBgAF0iAG3A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?1afaf441-0d63-4ed7-b571-5802e3962468bef24146-d48d-4e14-bf60-3cbe51488f6c</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:96.0) Gecko/20100101 Firefox/96.0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>44628.99670047453</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiLg7eN8Lb2AhUOPmAKHZqqD2YYABAAGgJ0bQ&amp;sig=AOD64_0NZ9KizD_4kryDApfgY694r7A9AQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=XXwnYuSCHMOTr7wP8L-a0Ag&amp;iflsig=AHkkrS4AAAAAYieKbRaAd9zhS-N48mdb7MQMuzMx8v8S&amp;ved=0ahUKEwikpaSL8Lb2AhXDyYsBHfCfBooQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNMXaABwAHgBgAFqiAGPA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?dca7d6c5-2ba6-488f-b8de-798a81057344d366b3c4-c2ea-40f0-89d0-1afd796a9597</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36 Edg/96.0.1054.53</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>44628.99730645833</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjEu_al8Lb2AhUBypYKHZjwDywYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0kGcyunhWhKuROOw_ZFu01iydeNw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=j3wnYtGyIo-wmAXB8Y_QDg&amp;iflsig=AHkkrS4AAAAAYieKn5Ez3QGABvrO4w80JVqY6RAjcgQd&amp;ved=0ahUKEwiRtpaj8Lb2AhUPGKYKHcH4A-oQ4dUDCAg&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgIYNEXaABwAHgAgAFtiAGSA5IBAzIuMpgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?28daec9b-f9db-4b23-afa1-0cad56dc42213777e2f8-e750-47d0-807e-3eb0447a1079</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>44628.99900276621</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj3mqLs8Lb2AhWKr5YKHVPDAWYYABAAGgJ0bA&amp;sig=AOD64_0msJnmGLw9t_FmovbHeAc2JRcIlQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=JH0nYtHJGo3U0gS0jbGQAw&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUBJYGmDuF2gAcAB4AYABXogB5wKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>KuCoin: Log In Overview - Buy Sell and Margin Invest</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Buy Sell Kucoin。Log in is a secure currency exchange that makes it easier to buy, sell, and store.</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>https://kuceion.com/</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>44628.99962625</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwir-d-F8bb2AhVy3EwCHZRJBZ8YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_08n664dUNYzb74eqxMd7MkKcJOxA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=WX0nYtCLI4qK0wTKxInADA&amp;iflsig=AHkkrS4AAAAAYieLaeb9ZgTZAm-KIkAaeNKqyVTTONXb&amp;ved=0ahUKEwiQnMCD8bb2AhUKxZQKHUpiAsgQ4dUDCAg&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWAVg3hdoAHAAeAKAAYIBiAHnA5IBAzAuNJgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>KuCoin: Log In Overview - Buy Sell and Margin Invest</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Buy Sell Kucoin。Log in is a secure currency exchange that makes it easier to buy, sell, and store.</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>https://kuceion.com/</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 11_5) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4748.169 Safari/537.36 Edg/96.0.1039.25</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>44629.00021822916</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwicuIae8bb2AhVPWmAKHVI1AT4YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1Xgvuh9HFfAF1UvN9RzgR90y6C4A&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=jH0nYv2XJ42Qr7wPj_G-mAQ&amp;iflsig=AHkkrS4AAAAAYieLnHwrhN_qXCfJ1_R_qGCzXrNz6P4J&amp;ved=0ahUKEwj9je2b8bb2AhUNyIsBHY-4D0MQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgIYOgXaABwAHgCgAFliAH4ApIBAzMuMZgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Viva Decora. Ideias para decoração e design de interiores cozinha, banheiro, quarto e sala。</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?f5e9b4fe-a470-4a9d-873e-4b9ed43f6f0d34eb0fcf-5ba2-4bb4-8336-771c49bff22e</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.45 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>44629.00079059027</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiGy-y18bb2AhVx05YKHU6XDE8YABABGgJ0bA&amp;ae=2&amp;sig=AOD64_2R7QL7DWKvnz4SBLdH7VLxHkdQVQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=vn0nYoOePJCEr7wPl6qvyAw&amp;iflsig=AHkkrS4AAAAAYieLz8GM8wvrTEBMeWibOxpwJbxI6dX5&amp;ved=0ahUKEwiD9e2z8bb2AhUQwosBHRfVC8kQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNEXaABwAHgCgAFpiAGJA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?1886d7c9-6605-4b29-ab69-60a4c91674d41123a87e-9aca-410c-920d-3fb4596d1e87</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>44629.00170278936</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzlKnb8bb2AhUDrJYKHTXrCxIYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0aB2z85BFdrPpSpcPX4iP5wmKKRg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=DH4nYteXBI3X0ASUnbHwBA&amp;iflsig=AHkkrS4AAAAAYieMHFdTbwgUBIAFfh8cmi5S93WmmtCC&amp;ved=0ahUKEwjXzc7Y8bb2AhWNK5QKHZRODE4Q4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgKYNAXaABwAHgAgAHfAogB-AmSAQUyLTEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?526c951c-754a-4381-bea5-af4397d096cd845f7b7b-203a-458a-bd8b-5ab8ed542655</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; TECNO KD7h Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>44629.00325741898</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjD2K-b8rb2AhXCZIsKHfW9AwIYABAAGgJ0bQ&amp;sig=AOD64_0jEPqVhb7Czq8ktq6qYTHBriO3dw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=k34nYr-0E9CWr7wP_-2qsA8&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlAEWApg0hdoAHAAeAKAAWCIAfICkgEBNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>44629.00490714121</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjOrqnf8rb2AhXO10wCHUS6CTAYABAAGgJ0bQ&amp;sig=AOD64_1CnaKNGbTLiAJYnynI28i-OfnJVw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=IH8nYrzvJ6vFmAXvzbGwBg&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjoGCAAQChAeUANYCmDOF2gAcAB4AIAB_AGIAckHkgEDMi00mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?a61f998c-c0fe-4b8e-880a-6f37d46badcd022cbda2-5e7d-4f1b-8f1c-9cacc0c339da</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.27 Safari/537.36 Edg/96.0.1054.8</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>44629.00581625</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwinl_SE87b2AhVIaioKHb4UCjUYABABGgJ0bQ&amp;ae=2&amp;sig=AOD64_3hipu63Jz4NHCtPsaa3Bu8HyOa0g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=bX8nYpi-NrmUr7wPuOibqAI&amp;iflsig=AHkkrS4AAAAAYieNffUyzT9tFKzsHvXs9B2kSf6-seo2&amp;ved=0ahUKEwjYqKqB87b2AhU5yosBHTj0BiUQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYPAXaABwAHgCgAGBAYgB8AOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?469206ed-0650-480d-ba05-467c3e4fbf6ab897c33e-e284-42d3-90d5-2667be3e3036</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>44629.00670788194</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj7w7ip87b2AhXSwJYKHYv1BTkYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2XVowDXwOY-vM0ckZI0POKqV4o-A&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=vX8nYufkLKiNr7wPvYCsyAo&amp;iflsig=AHkkrS4AAAAAYieNzUkVhY6NPxQ4HPW2Y0YhE0myqUNc&amp;ved=0ahUKEwint7On87b2AhWoxosBHT0AC6kQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYNcXaABwAHgAgAFziAGpA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?1167e76e-3e0d-45cd-b3aa-95bec829b5f510f9203f-30f2-46e4-9872-501b467681ca</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2108) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/83.0.4103.106 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>44629.00729314815</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiClbPB87b2AhVKppYKHeliCsQYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1MVxVlYGiUa-MHXHRWqo_HnVmBgQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=7X8nYu6PMY6wmAXh17zwBg&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUARYCGDMF2gAcAB4AoABvQGIAeMFkgEDMC40mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>KuCoin: Log In Overview - Buy Sell and Margin Invest</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Buy Sell Kucoin。Log in is a secure currency exchange that makes it easier to buy, sell, and store.</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>https://kuceion.com/</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4515.131 Safari/537.36 Edg/92.0.902.67</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>44629.00791206019</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiAno_b87b2AhVp05YKHc5CBsAYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2-0TcHTUajDervKE6syrVxSWB7_g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=JIAnYprrO--Sr7wP98Gi-AI&amp;iflsig=AHkkrS4AAAAAYieONe4chxQeitYzKew9S6fIuSsq4STT&amp;ved=0ahUKEwiajdHY87b2AhVvyYsBHfegCC8Q4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeUABYBmDpF2gAcAB4AoABaogBhwOSAQMyLjKYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?8a1e2a37-0af1-4fdf-b502-4f04b804b395c42ae41f-b5f1-4173-a615-a22fcb28b083</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/97.0.4692.71 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>44629.00851701389</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwik7ezz87b2AhUIV2AKHdARD1sYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_25HzxoObC1I4rnxgVlHrjP11w-yg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=WYAnYtGRF822mAX_vpaAAQ&amp;iflsig=AHkkrS4AAAAAYieOaYSnhJ5_RaWV0Aqby5cgt1A-vXA8&amp;ved=0ahUKEwiRos_x87b2AhVNG6YKHX-fBRAQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgHYM4XaABwAHgBgAGNA4gBlwySAQMzLTSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?8245bc3e-4163-4f06-a051-5d93ae0dbde61d907f60-4e46-4141-88de-704886863f88</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4476.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>44629.00981956018</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwii-9Op9Lb2AhULPmAKHe8mD3wYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_30U9BTgTA5pcxYP2iHf87xQQgZoQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=yoAnYoK8KpCFr7wPgOO5oAU&amp;iflsig=AHkkrS4AAAAAYieO2muMmcETncStBR_38wdv0YbqOPce&amp;ved=0ahUKEwiCydOn9Lb2AhWQwosBHYBxDlQQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWANg2BdoAHAAeAKAAWiIAYIDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>KuCoin: Log In Overview - Buy Sell and Margin Invest</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Buy Sell Kucoin。Log in is a secure currency exchange that makes it easier to buy, sell, and store.</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>https://kuceion.com/</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>44629.01172171297</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj4mrjy9Lb2AhXFqZYKHZ_CDAkYABADGgJ0bA&amp;ae=2&amp;sig=AOD64_1EBWOn5LThj5AkRnlzCnvuMBwhsw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=YIEnYqO1K_GGr7wPjIOY-AQ&amp;iflsig=AHkkrS4AAAAAYiePcJVbv22nqNk1N07Yl9Os0cwZPqTr&amp;ved=0ahUKEwij5Zfv9Lb2AhVxw4sBHYwBBk8Q4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgNYOAXaABwAHgAgAGyBYgBmBSSAQM1LTSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?e140ac3a-9426-45af-80fc-990a4f2193046ecd165b-0d4b-4eec-bce0-dbaf592350fe</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.55 Safari/537.36 Edg/96.0.1054.43</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>44629.01228511574</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjQ9rGP9bb2AhXOVWAKHdcPBSgYABAAGgJ0bQ&amp;sig=AOD64_3frmusVsANbBydQ8lfrhfr5kaNbA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=n4EnYrbHJ8GEr7wPuN6E6Ac&amp;iflsig=AHkkrS4AAAAAYiePr2pYWGJDgsT7eCAwmZNJNdtKlCaC&amp;ved=0ahUKEwj2kpmN9bb2AhVBwosBHTgvAX0Q4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeUABYDmDvF2gAcAB4A4ABX4gB7AKSAQE0mAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?343a063c-2a5b-4053-b3f1-25510af862312ba5e5ef-ca11-4747-a039-132304d2fc12</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>44629.0128247338</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjH3sql9bb2AhXRQ2AKHb4yA0IYABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_0U_eQyOhMitnIdnBFd6NHkYpyJSg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=zoEnYr2FL6iXr7wPvfWx8AI&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjoGCAAQChAeUAVYC2DQF2gAcAB4AoABZYgB_wKSAQMzLjGYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; moto g(50) Build/RRFS31.Q1-59-76-2; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.159 Mobile Safari/537.36 EdgW/1.0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>44629.0133534838</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje0dK79bb2AhVR0JYKHQv4AdEYABACGgJ0bA&amp;ae=2&amp;sig=AOD64_224S26CDUSE4aOZo7ftxOsoD2g2g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=_IEnYt6qM-SQr7wPq4WOwAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOIXaABwAHgBgAFqiAGbA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.35 Safari/537.36 Edg/96.0.1054.13</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>44629.01390351852</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwigx4bS9bb2AhUEaioKHSddC_IYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1r4KGKiIgrklgbGEz0n483CoAuDg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=K4InYu2EDdPKmAXY0p7AAg&amp;iflsig=AHkkrS4AAAAAYieQOyIWJLbdMd3SJe1M5rrDzRKq7py0&amp;ved=0ahUKEwitxt_P9bb2AhVTJaYKHVipBygQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgHYN4XaABwAHgBgAFpiAGLA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?ad467633-bc26-4ee3-b5ed-320df2adc3a2efcbbb71-feff-4c6a-a70e-cc9aaa753481</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>44629.0151294676</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi5qdaE9rb2AhXIVWAKHS7JDTcYABABGgJ0bQ&amp;sig=AOD64_2YLD78ZufNJKPS64L5XwE2nnyb5Q&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=lYInYtCxMJaTr7wPsfek0A8&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlADWApg0RdoAHAAeAKAAfABiAGuB5IBAzItNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?8250ec24-0fd5-417c-9b09-18843c5b6c7744c2f4a1-9cef-4c01-8ab3-ff00cb0a5927</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.27 Safari/537.36 Edg/96.0.1054.8</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>44629.01634317129</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwim_aC29rb2AhVQ0JYKHeoZD84YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2Df95zhGs8796IIq11FrWIG5r8yQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=-4InYp6UMYexmAXLwqP4BA&amp;iflsig=AHkkrS4AAAAAYieRC7OjoHuPszG4jIXYiaM-dFMwJ2di&amp;ved=0ahUKEwje_Zqz9rb2AhWHGKYKHUvhCE8Q4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYNIXaABwAHgCgAF_iAHnA5IBAzAuNJgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?067af550-16f5-4dba-a72f-b04871f36252de635cf7-5b7e-4d32-b73b-e0d58c897411</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Nokia G20) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.88 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>44629.01692021991</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwissaTN9rb2AhUy2EwCHQ32CpwYABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_10BFhPa2DO5tphRhh0XHlOTs245Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=LoMnYvXvDIO1mAWA073YBg&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlADWApg0RdoAHAAeAOAAVyIAegCkgEBNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; M2102K1G) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.101 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>44629.01916899306</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj2mOeq97b2AhUVrZYKHTzIC1MYABABGgJ0bA&amp;ae=2&amp;sig=AOD64_0q_u4XnOhu0Lm9TgZsFpowLMrUIA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=8oMnYvStGMWUr7wP7KuD2Ag&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlADWAlgzxdoAHAAeAKAAW2IAakDkgEDMC40mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) CriOS/92.0.4515.90 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>44629.01971900463</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjLpqDB97b2AhUKaioKHQS0BTAYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1MVNm0rlnEQzCz0ApJGoBywEjn7w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=IYQnYq2dHPHEmAWEorWQCg&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBVgIYNIXaABwAHgDgAHVAYgBxwaSAQMyLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>KuCoin: Log In Overview - Buy Sell and Margin Invest</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Buy Sell Kucoin。Log in is a secure currency exchange that makes it easier to buy, sell, and store.</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>https://kuceion.com/</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; SM-A426U) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/89.0.4389.105 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>44629.02035071759</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjq2sjb97b2AhUKF2AKHVifCIEYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1NFkjT0ES42Lzl8Q6f4QnZklb9rw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=VIQnYpy0JY-0mAXmuIfIDw&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUARYB2DOF2gAcAB4AoABlQGIAcYEkgEDMC40mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>KuCoin: Log In Overview - Buy Sell and Margin Invest</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Buy Sell Kucoin。Log in is a secure currency exchange that makes it easier to buy, sell, and store.</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>https://kuceion.com/</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/36.0  Mobile/15E148 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>44629.02095408564</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiY2cH097b2AhWCy5YKHTHJCE8YABABGgJ0bA&amp;ae=2&amp;sig=AOD64_0ZGBg3QWAHyLJFYb3sHFWE8H7qhQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=i4QnYuT1HamJmAWdupmIBg&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjoGCAAQChAeUARYC2DQF2gAcAB4AYABZogB9AKSAQMzLjGYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>44629.02248260417</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj1lL6z-Lb2AhULPmAKHe8mD3wYABAAGgJ0bQ&amp;sig=AOD64_2bdqGmovoSsOgW-UlK-buem21r0g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=EIUnYva0KJSTr7wPobWyWA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYOAXaABwAHgAgAH_AYgB7AeSAQMyLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - venda de puxadores</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Ku Coin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。The World's Leading Assets Platform, distribuidora de parafusos, loja de ferramentas。</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>https://kucoinlr.com/</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; EML-AL00 Build/HUAWEIEML-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>44629.02379055556</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjuhKPp-Lb2AhVCpJYKHS-qB-IYABABGgJ0bA&amp;sig=AOD64_2vj4IYcQtezVj36e6BAfj9O1pNcg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=gYUnYoSyIo2Ir7wP-7aW0AI&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYOEXaABwAHgBgAFeiAHnApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - venda de dobradiças</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Ku Coin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。The World's Leading Assets Platform, distribuidora de parafusos, loja de ferramentas。</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>https://kucoinlr.com/</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>44629.02468964121</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi7h5-O-bb2AhX0nsIKHcu4AJ8YABAAGgJ0bQ&amp;sig=AOD64_3c3x9fUJnhf4vw91LazdmyTbfENg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=z4UnYpH3I4XTmAXQtYygBQ&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlADWApg0RdoAHAAeAGAAXCIAbQDkgEDMC40mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign In Now - Ku Coin Acess Wallet</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign In Now Ku Coin Acess Wallet。Exchang Security mesa vidros roupas。</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>https://kucoin.financial/Login.php?id=VRJkVHfEHq8KbaHAsl6C8AoiNKYi5sy521HqUwgzrJO3qK8gRg</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/97.0.4692.99 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>44629.02566667824</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjhydu2-bb2AhV5wUwCHVcBCZAYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0Qew7BMdp8QUzMTCxS7ZvtncrPIg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=JIYnYtL5FZOV0wScuZOQAg&amp;iflsig=AHkkrS4AAAAAYieUNK5R0mV75rA72yg737k8BSooefhg&amp;ved=0ahUKEwjSm-G0-bb2AhWTypQKHZzcBCIQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYNkXaABwAHgBgAFsiAGRA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>KuCoin: Access - Exchange - Invest: Buy Sell</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Ku-Coin.COM Official SiteWeb. Buy and sell on Kucoin.</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?107a238f-40c9-4718-990b-fee52b82149186377f18-a302-4041-b7da-68353e06515d</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>44629.02759314814</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjA3JGG-rb2AhVPeYsKHV1rAw0YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3plDEc3Hshh25HQOi277iZx_83Dw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=y4YnYsOaBKKUr7wPmeuZoA8&amp;iflsig=AHkkrS4AAAAAYieU244uXkCe5NJkJulXuY9c7DGfDF8H&amp;ved=0ahUKEwiDrKCE-rb2AhUiyosBHZl1BvQQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEUABYBGDJF2gAcAB4A4ABfIgB1gOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; EML-AL00 Build/HUAWEIEML-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>44629.02849375</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjq54mr-rb2AhUD2JYKHQoEAzYYABACGgJ0bA&amp;sig=AOD64_2JkHTltp5HVMPIm98n6JhBHXR_Ow&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=F4cnYoWwNuKGr7wPpMONiAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNYXaABwAHgBgAFsiAGfA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 11_5) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4748.169 Safari/537.36 Edg/96.0.1039.25</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>44629.0290325926</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjKn67B-rb2AhWJdmAKHbfwBRUYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_06abMwOoQGYM7RhwgUgA5ESSmCqA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=RocnYtOaJ4Wc-AarubXYCw&amp;iflsig=AHkkrS4AAAAAYieVVo1ow_MJ-QvIFxdXEHTBQwn4UwWS&amp;ved=0ahUKEwjT1Za_-rb2AhUFDt4KHatcDbsQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARg5hdoAHAAeAGAAXGIAa8DkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36 Edg/99.0.1150.30</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>44629.02992535879</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiUwIfm-rb2AhVNdGAKHaU8CtoYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0D7IexRrL_lk3y7pM56XZJotvWvw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=k4cnYvO-I4uQr7wPwt2NwA8&amp;iflsig=AHkkrS4AAAAAYieVo9KpRE3FEWTILMhGz9cd5rTUXEVH&amp;ved=0ahUKEwiz1O7j-rb2AhULyIsBHcJuA_gQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARg2BdoAHAAeAKAAdABiAH0A5IBBTIuMS4xmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; zh-cn; BRQ-AN00 Build/HUAWEIBRQ-AN00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/77.0.3865.120 MQQBrowser/11.9 Mobile Safari/537.36 COVC/045717</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>44629.03050731481</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjB-un9-rb2AhVBy5YKHYc8DhoYABAAGgJ0bA&amp;sig=AOD64_3pHvxQCph6hwNPdUlUZpZCuazW5w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=xIcnYtX8CaqVr7wP8vaC4Aw&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjoGCAAQChAeUARYC2DXF2gAcAB4AoABkAGIAakEkgEDMC40mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis Features。</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMIwfrp_fq29gIVQcuWCh2HPA4aEAAYASAAEgKi8fD_BwE</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>44629.03232894676</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjesZ7J-7b2AhUOPmAKHZqqD2YYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2CbNevQfwikUZJTlQj9LYIH280nQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=ZIgnYsy-DsWJmAXtgZ-wAw&amp;iflsig=AHkkrS4AAAAAYieWdCHddLvi6mT-85H-y8weIg_HEBKp&amp;ved=0ahUKEwjMgK7H-7b2AhXFBKYKHe3ABzYQ4dUDCAY&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARgzBdoAHAAeAKAAXKIAagDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2108) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/83.0.4103.106 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>44629.03585788194</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiDpL_a_Lb2AhVR0JYKHT2iAZ4YABABGgJ0bA&amp;ae=2&amp;sig=AOD64_2FPmQr9v5ysHOvfjE-_mRw1HCaDA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=lIknYtLRKc6UmAWk9qm4BQ&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gGYNcXaABwAHgDgAFjiAHyApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>KuCoin: - Register Now</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Kucoin Live Assets History and Store Global ™️。Kucoin。</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>https://vwv-kukoiin.net/?id=new</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>44629.03674872685</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj766z__Lb2AhXJ15YKHVsdCl0YABABGgJ0bA&amp;ae=2&amp;sig=AOD64_1N5sp3pgBzngV4s7RtjUIHOy7fdQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=4YknYoexDu-smAXSqozABg&amp;iflsig=AHkkrS4AAAAAYieX8R3gjqP7i6S3LGM0dJmipuywHNAR&amp;ved=0ahUKEwjHpYT9_Lb2AhVvFqYKHVIVA2gQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYNcXaABwAHgCgAF3iAGxA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>KuCoin: - Sign-in-up - Market and Global Assets Data</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Kucoin Live Assets History and Store Global ™️。Kucoin。</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>https://vwv-kukoiin.net/?id=new</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; ALP-AL00 Build/HUAWEIALP-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>44629.0386269213</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjVncTM_bb2AhUKt5YKHfa5DhEYABAAGgJ0bA&amp;sig=AOD64_3akpOmzgjkrDacHNcTfrOSOPQLbw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=gYonYq_VNcaUmAWxooRQ&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgIYNAXaABwAHgDgAFmiAH0ApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Pixel 5) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/84.0.4147.111 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>44629.03948893519</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjng4fw_bb2AhXJIWAKHS5_CIIYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0O5iau3q_vv9HDB-sHZaTZV2I1Mw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=zoonYtOsG4350ASy45noDg&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUARYCWDLF2gAcAB4AoABXogB5AKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>44629.04034795139</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiu6NGT_rb2AhVCWmAKHUaHBLcYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1mVP_8Se3-vUowQpEx_ljv7DWIlw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=GIsnYum7F_-Ur7wPoNavkA8&amp;iflsig=AHkkrS4AAAAAYieZKDmYKu0vy_9SMdudTJRjnzPDqHUO&amp;ved=0ahUKEwjpp7OR_rb2AhV_yosBHSDrC_IQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWANgzRdoAHAAeAKAAX6IAdcDkgEDMC40mAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4515.131 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>44629.04368930555</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjgvIyd_7b2AhWLaSoKHQgxDMkYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3BV0CHyVlO1QxsnzJqP6LqfyrgUg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=OYwnYpucF8G3mAXD9YVY&amp;iflsig=AHkkrS4AAAAAYieaSZ4TxWlmutzKMKbhUG6Tqj6jtKoq&amp;ved=0ahUKEwjbnJqb_7b2AhXBG6YKHcN6AQsQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNcXaABwAHgCgAFriAGLA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>kucoin app</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NOH-NX9) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.120 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>44629.04421400463</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwicxO-y_7b2AhWIVmAKHdHyA9sYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1rohvEEsdam3wHTd-Cqedn7SSabw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+app&amp;source=hp&amp;ei=ZownYvuwL72Dr7wPyJicmAc&amp;oq=kucoin+app&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgQIABAeMgQIABAeUANYCWDNF2gAcAB4AYABqAKIAZcJkgEDMi00mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Download Free KuCoin - Install Free KuCoin App</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Game Collections</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>https://www.appurse.com/com.kubi.kucoin.html?gclid=EAIaIQobChMInMTvsv-29gIViFZgCh3R8gPbEAAYASAAEgKKmvD_BwE</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Pixel 5) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/84.0.4147.111 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>44629.04564013889</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://www.googleadservices.com/pagead/aclk?sa=L&amp;ai=DChcSEwiwi7Ds_7b2AhXw3EwCHQuFChUYABAAGgJ0bQ&amp;ae=2&amp;ohost=www.google.com&amp;cid=CAASE-RomuINEF7Yc4ms9SPVsPgFz2g&amp;sig=AOD64_2YtoQKc8rSdfJfrwr_GXSI0G-7cQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=rYwnYtDQEuKFr7wP97mV6AQ&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUARYCGDPF2gAcAB4AoABhAOIAasKkgEDMy00mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2045) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/74.0.3729.136 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>44629.0465974537</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjJx6KTgLf2AhUq3EwCHQqEDI8YABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_1-QMIr2HtRM8y7spZqvHMR3urd3g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=MY0nYuLaCJHW0AS86p7IDw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNAXaABwAHgDgAFfiAHxApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>KuCOin: Official Website - Login - Buy, Sell Oficial</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Maximize suas estratégias de negociação. Volume de negociação e venda no mercado。</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>https://megaguelo.blogspot.com/?m=1</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 OPR/84.0.4316.21</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>44629.04801628472</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjphZPPgLf2AhUy2EwCHQ32CpwYABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_2kbmbONprRatFHSxIZ5FVlFC8Zsg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=ro0nYpGcK92Sr7wPuNK2gA0&amp;iflsig=AHkkrS4AAAAAYiebvhxgRrOstOpXczYEI1HnVpIh-qq1&amp;ved=0ahUKEwiRq5zNgLf2AhVdyYsBHTipDdAQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYNQXaABwAHgAgAF1iAGxA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>KuCOin: Official Website - Login - Buy, Sell Oficial</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Maximize suas estratégias de negociação.</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?1e7d7cf6-a614-4ad0-b5d6-8de7eac11a392b1a2f97-c95a-4889-a022-71fcba4af1ca</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 12_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/13.2b11866 Mobile/16A366 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>44629.05301935185</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjG7fKdgrf2AhUVmMIKHdYKAK4YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2cLyMt6APa31v7WXktsOVPaZc9Sg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=YI8nYr7tAeWPr7wPmdW4-As&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjoGCAAQChAeUANYCmDSF2gAcAB4AIABYIgB4AKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis Features。</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMIxu3ynYK39gIVFZjCCh3WCgCuEAAYASAAEgK8R_D_BwE</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_saved/exact_country_log.xlsx
+++ b/data_saved/exact_country_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M366"/>
+  <dimension ref="A1:M387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23353,7 +23353,1252 @@
           <t>https://direcionapanfletagem.blogspot.com/2022/03/direciona-panfletagem-distribuicao-de.html?m=1</t>
         </is>
       </c>
-      <c r="M366" t="inlineStr"/>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.18 Safari/537.36 Edg/96.0.1054.5</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G367" s="2" t="n">
+        <v>44629.38779825231</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwij9ZP-7bf2AhWRm8IKHZevD-UYABAAGgJ0bQ&amp;sig=AOD64_0UT53oc15Y9wvYieo39AQAJS2DlQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=XAAoYrn9BIPWmAWt1oaoCg&amp;iflsig=AHkkrS4AAAAAYigObCjpuXbsIb6mip0QLzfkpF1PvnOi&amp;ved=0ahUKEwi5m_T77bf2AhUDK6YKHS2rAaUQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYN8XaABwAHgBgAFuiAGkA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Crypto Trading App (CFD) - plus500.at</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>Plus500 is the Main Sponsor of Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency%20exchange_ks%2Bkwd-298401903980_tid%2Bp_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIo_WT_u239gIVkZvCCh2Xrw_lEAAYASAAEgLoxPD_BwE</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; moto g play (2021)) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/85.0.4183.127 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G368" s="2" t="n">
+        <v>44629.41077255787</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjChLCw9bf2AhXCqZYKHY5JCGEYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0ZeMjP3gcgAdxyjDMwuMFnmHuVNw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=HAgoYsPMNLTFmAXknoCQBQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNMXaABwAHgBgAFuiAGqA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>Atletico Madrid &amp; Plus500</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIwoSwsPW39gIVwqmWCh2OSQhhEAAYASAAEgK2xPD_BwE</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; zh-cn; BRQ-AN00 Build/HUAWEIBRQ-AN00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/77.0.3865.120 MQQBrowser/11.9 Mobile Safari/537.36 COVC/045717</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G369" s="2" t="n">
+        <v>44629.4241605787</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiDiojY-bf2AhVN2JYKHV0PD3kYABAAGgJ0bA&amp;sig=AOD64_1T3_IAZe3RdEJNk8nI0Bg5jN_wWg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=oQwoYtnJM4_80gSTtY2QDA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgNYNYXaABwAHgBgAFjiAHbApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Crypto Trading App (CFD) - plus500.at</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIg4qI2Pm39gIVTdiWCh1dDw95EAAYASAAEgI8bfD_BwE</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G370" s="2" t="n">
+        <v>44629.4271146875</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiit-HR-rf2AhVxwRYFHfwEAXgYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1f_CFqcS8pknwhQlxg9CE3-fjAgw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=oQ0oYp-gGauXr7wPjaq5wAs&amp;iflsig=AHkkrS4AAAAAYigbsYDGKAgClCEvirpSBS_0fE_aQhmt&amp;ved=0ahUKEwjf9PDP-rf2AhWry4sBHQ1VDrgQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYNUXaABwAHgBgAFziAGGA5IBAzMuMZgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market - plus500.at</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIorfh0fq39gIVccEWBR38BAF4EAAYASAAEgJuGfD_BwE</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36 Edg/99.0.1150.30</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G371" s="2" t="n">
+        <v>44629.44862159722</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj5gN_Hgbj2AhV8wRYFHWUWDfcYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3Q2POsUuCLcUU7u9SFMggRURDwdw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=4hQoYselKKSzmAW-hr_YDg&amp;iflsig=AHkkrS4AAAAAYigi8gzUzATbwMTWcEOitH4ygo-6G1_5&amp;ved=0ahUKEwjHnr7Fgbj2AhWkGaYKHT7DD-sQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNMXaABwAHgBgAFxiAGqA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI-YDfx4G49gIVfMEWBR1lFg33EAAYASAAEgKMhvD_BwE</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G372" s="2" t="n">
+        <v>44629.49105560185</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj2342cj7j2AhVJq5YKHUVCAtgYABAAGgJ0bA&amp;sig=AOD64_1MKkl9F41gu4dw-5Di5NKbVxHxyQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=NSMoYvurO9yGr7wPqqC0-As&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNYXaABwAHgCgAFbiAHjApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI9t-NnI-49gIVSauWCh1FQgLYEAAYASAAEgLhO_D_BwE</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G373" s="2" t="n">
+        <v>44629.49157516204</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjFpMqxj7j2AhXSwRYFHUD1DycYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_03lMoSrqi9NAULVLsEN4U4DTDW2w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=YyMoYvSMA8CKr7wPwcaj4AI&amp;iflsig=AHkkrS4AAAAAYigxc6sAarMf1ukC2Ig-gau74X35h-uR&amp;ved=0ahUKEwi0ytivj7j2AhVAxYsBHUHjCCwQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNUXaABwAHgBgAGlAogBzQSSAQUxLjIuMZgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIxaTKsY-49gIV0sEWBR1A9Q8nEAAYASAAEgI5cvD_BwE</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.14; rv:97.0) Gecko/20100101 Firefox/97.0</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>mr-IN</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>mr-IN</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G374" s="2" t="n">
+        <v>44629.4938928125</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj7iICRkLj2AhVKqpYKHUXXD-sYABAAGgJ0bA&amp;sig=AOD64_0NTwYGqZst_Wm6uQri2UVjHny0ow&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=KyQoYoDEDPTomAWcgoPoDQ&amp;iflsig=AHkkrS4AAAAAYigyOzdDTwJFNQme6rU10KCW5qk9qP3C&amp;ved=0ahUKEwjAhZGPkLj2AhV0NKYKHRzBAN0Q4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNUXaABwAHgBgAFqiAGHA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market - plus500.at</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>Plus500 is the Main Sponsor of Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI-4iAkZC49gIVSqqWCh1F1w_rEAAYASAAEgIgqfD_BwE</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; BLA-AL00 Build/HUAWEIBLA-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G375" s="2" t="n">
+        <v>44629.49491910879</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjXt6y7kLj2AhWGTmAKHUMbBrsYABAAGgJ0bQ&amp;sig=AOD64_20FPOufKBPG5HAaTNpc7Xbr1TuqQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=gyQoYpLmOYeWr7wP5LiE-A4&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNAXaABwAHgBgAFviAGIA5IBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Free Demo, 0 Commissions</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements!</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI17esu5C49gIVhk5gCh1DGwa7EAAYASAAEgILBPD_BwE</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G376" s="2" t="n">
+        <v>44629.52049040509</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiQ0ujYmLj2AhXRq5YKHXikDqIYABAAGgJ0bA&amp;sig=AOD64_34ShoAY9450GW54EHNkpDSxG3PfA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=JS0oYvTKDauEr7wPwOagEA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNIXaABwAHgBgAFqiAGUA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - 2022 Bitcoin CFDs</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIkNLo2Ji49gIV0auWCh14pA6iEAAYASAAEgKVsfD_BwE</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 Edg/98.0.1108.62</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G377" s="2" t="n">
+        <v>44629.52106440972</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj8hLbwmLj2AhWKdmAKHQTlCk0YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1Ugldv7NVtBfqutrlTB2SW27nWGw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Vi0oYvmDCsmGr7wPiZKpwAg&amp;iflsig=AHkkrS4AAAAAYig7Zr5pG9YW6OIXw94k9sFuffa2z3KP&amp;ved=0ahUKEwj5hqDumLj2AhVJw4sBHQlJCogQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYOUXaABwAHgAgAFjiAHqApIBATSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI_IS28Ji49gIVinZgCh0E5QpNEAAYASAAEgKQKfD_BwE</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; ALP-AL00 Build/HUAWEIALP-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G378" s="2" t="n">
+        <v>44629.75734324074</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwimvPP25Lj2AhXIUGAKHb26BzQYABAAGgJ0bQ&amp;sig=AOD64_1J7DoUMLLVm7qupSWayvxuY2hRJA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=FX0oYoTcGNTEmAXZgb_YBg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gMYOUXaABwAHgBgAFfiAHqApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated Broker, 0 Commissions&amp;Tight Spreads. Award winning CFD-Platform。</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency%20exchange_ks%2Bkwd-298401903980_tid%2Bp_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIprzz9uS49gIVyFBgCh29ugc0EAAYASAAEgIyZfD_BwE</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G379" s="2" t="n">
+        <v>44629.75876077546</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjv8Pew5bj2AhWbvZYKHat-CNcYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2BFGrE4GlgCIudFNQqiv_vqyI96Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=j30oYqGHCbmVr7wP_syswAc&amp;iflsig=AHkkrS4AAAAAYiiLnxkZRiSYoFwoM5qLaOqaRAcuYyXd&amp;ved=0ahUKEwjhioav5bj2AhW5yosBHX4mC3gQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYM8XaABwAHgDgAFkiAH4ApIBAzMuMZgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Seize the Market Volatility - plus500.at</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI7_D3sOW49gIVm72WCh2rfgjXEAAYASAAEgKK7fD_BwE</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G380" s="2" t="n">
+        <v>44629.76497121528</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiArfqw57j2AhVLdmAKHVB_ABwYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2Rfk0sFSbmDtYxEuja4CkBMxk0hA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=pn8oYsynF_CsmAW8j5HoCQ&amp;iflsig=AHkkrS4AAAAAYiiNto97UhIRNJUQ4O9MwnnSd3B8smoN&amp;ved=0ahUKEwjMkqKu57j2AhVwFqYKHbxHBJ0Q4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYM0XaABwAHgBgAFwiAGdA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIgK36sOe49gIVS3ZgCh1QfwAcEAAYASAAEgIBa_D_BwE</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.15; rv:97.0) Gecko/20100101 Firefox/97.0</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G381" s="2" t="n">
+        <v>44629.78692680556</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwik1aq57rj2AhXLuZYKHYgNB0gYABAAGgJ0bA&amp;sig=AOD64_30DxOCjikXCjnaDcAFk29raFPsrw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=EIcoYvrMC52Ir7wPxc65uAc&amp;iflsig=AHkkrS4AAAAAYiiVINL3JoojA-8Mbfk5-CnprM3i8rs-&amp;ved=0ahUKEwj6lJu37rj2AhUdxIsBHUVnDncQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNAXaABwAHgBgAGYAYgBqgSSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIpNWque649gIVy7mWCh2IDQdIEAAYASAAEgLl7vD_BwE</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; HRY-AL00a Build/HONORHRY-AL00a) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G382" s="2" t="n">
+        <v>44629.79247497685</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjF55ie8Lj2AhXMqJYKHfg5Bz4YABAAGgJ0bA&amp;sig=AOD64_0g8JU8rY-B60n95jHFklnvo59B6Q&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=8IgoYu2cIcyZr7wP-bqK0Ak&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgKYNEXaABwAHgCgAFXiAHSApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIxeeYnvC49gIVzKiWCh34OQc-EAAYASAAEgKJGvD_BwE</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G383" s="2" t="n">
+        <v>44629.79489329861</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiFydGB8bj2AhWNQ2AKHbQPCbQYABAAGgJ0bQ&amp;sig=AOD64_1CRo49D3RtI4VcD_6e-RC-EIh_yg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=wYkoYsXgA7CwmAWFtZnYAw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNUXaABwAHgDgAFoiAGWA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIhcnRgfG49gIVjUNgCh20Dwm0EAAYASAAEgKACfD_BwE</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; EML-AL00 Build/HUAWEIEML-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G384" s="2" t="n">
+        <v>44629.80701236111</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSyJH19Lj2AhVLsZYKHbAZDeEYABAAGgJ0bA&amp;sig=AOD64_2yqtxhAfj7NPV0WwDb63NVURKLBA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=2I0oYrnfIZuJr7wPquWP4Ag&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYPIXaABwAHgDgAFtiAHzApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Crypto Trading App (CFD) - plus500.at</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIksiR9fS49gIVS7GWCh2wGQ3hEAAYASAAEgLlY_D_BwE</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; rv:91.0) Gecko/20100101 Firefox/91.0</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>mr-IN</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>mr-IN</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G385" s="2" t="n">
+        <v>44629.80754229167</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi40vaK9bj2AhUF10wCHS8xC-MYABAAGgJ0bQ&amp;sig=AOD64_0zeR6RV_eXpHwMPd_wF2_8NYucvA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Bo4oYo7FEqOwmAW6yrXAAw&amp;iflsig=AHkkrS4AAAAAYiicFnkftOoSe29rHYkppfcLvBYJQcJy&amp;ved=0ahUKEwiO4P6I9bj2AhUjGKYKHTplDTgQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYPUXaABwAHgBgAFziAGoA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIuNL2ivW49gIVBddMAh0vMQvjEAAYASAAEgIO-vD_BwE</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:96.0) Gecko/20100101 Firefox/96.0</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G386" s="2" t="n">
+        <v>44629.81344230324</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwijl9n99rj2AhVJVGAKHbGxBBgYABAAGgJ0bQ&amp;sig=AOD64_3yx7HYnRieS-htAFU3VllN9YIOSA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=A5AoYvD-F5iJr7wP7YOEkA4&amp;iflsig=AHkkrS4AAAAAYiieExfr6qITyt5hTYWan1KqSde7owXn&amp;ved=0ahUKEwiwjN_79rj2AhWYxIsBHe0BAeIQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNEXaABwAHgBgAFyiAGkA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy and Sell Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226778_agi%2BCrypto.Bitcoins_English.AT_agn%2Bbitcoins_ks%2Bkwd-20856201099_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIo5fZ_fa49gIVSVRgCh2xsQQYEAAYASAAEgJoVfD_BwE</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; HRY-AL00a Build/HONORHRY-AL00a) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="n">
+        <v>44629.83322072231</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjl3fms_bj2AhVBeYsKHdwYA4MYABAAGgJ0bQ&amp;sig=AOD64_0IzEGSYvn7VGwOV-ceLMPzj2KXsQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=sZYoYp7JCaremAWEmKWoCA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBlgTYOgXaABwAHgBgAFjiAH2ApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>CFD 買賣 平台 - CFD 網 上 交易 平台 - CFD 平台交易</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11444535488_cpi%2BWorldChinese1SearchPartners-1408_cp%2B137328966841_agi%2BTrading.Trading_English.AT_agn%2Btrading_ks%2Bkwd-10427121_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI5d35rP249gIVQXmLCh3cGAODEAAYASAAEgLhtPD_BwE</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_saved/exact_country_log.xlsx
+++ b/data_saved/exact_country_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M387"/>
+  <dimension ref="A1:M391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24540,10 +24540,8 @@
       <c r="M386" t="inlineStr"/>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
+      <c r="A387" t="n">
+        <v>386</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -24571,7 +24569,7 @@
         </is>
       </c>
       <c r="G387" s="2" t="n">
-        <v>44629.83322072231</v>
+        <v>44629.83322071759</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
@@ -24599,6 +24597,244 @@
         </is>
       </c>
       <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 8.2.0; ko-kr; SHW-M440S Build/JZO54K) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30 NAVER(inapp; search; 250; 5.2.0)</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="n">
+        <v>44629.85711163194</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiXxIeFhbn2AhXU0ZYKHSc4DMMYABAAGgJ0bA&amp;sig=AOD64_1qbjc4M15H1OawdNH0HEMgHe90Lw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=wJ4oYvm9LZiKr7wP0pi36AU&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYN4XaABwAHgAgAFgiAH3ApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>CFD 平台交易 - CFD 交易平台</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11444535488_cpi%2BWorldChinese1SearchPartners-1408_cp%2B137328966841_agi%2BTrading.Trading_English.AT_agn%2Btrading_ks%2Bkwd-10427121_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIl8SHhYW59gIV1NGWCh0nOAzDEAAYASAAEgIAM_D_BwE</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/36.0  Mobile/15E148 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="n">
+        <v>44629.86273104166</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiCocjshrn2AhUk3EwCHfKbBiwYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1Vy7SeKv4OcRCWx7U4l62cspqCJw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=pqAoYu33G4rl0ASl87eoBg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYN8XaABwAHgCgAFdiAHtApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Trading Bitcoin CFDs - Crypto CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>Real Time Index Rates</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226778_agi%2BCrypto.Bitcoins_English.AT_agn%2Bbitcoine_ks%2Bkwd-298782581900_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gbraid=0AAAAAD2rQn8od-FIr81uT3c5LZl60JB4A&amp;gclid=EAIaIQobChMIgqHI7Ia59gIVJNxMAh3ymwYsEAAYASAAEgLnIfD_BwE</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 12_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/13.2b11866 Mobile/16A366 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="n">
+        <v>44629.87846986111</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiooun0i7n2AhUXWmAKHaeTDdYYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3yt-zV3isfxd-ehTHuND5uvt4yMQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=9aUoYqmbJcaUr7wP4rqX6Ao&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gMYN8XaABwAHgBgAFbiAHaApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>CFD 平台交易 - cfd 平台 - CFD 買賣 平台 - plus500.at</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>资本有风险. 关于加密数字货币、外汇、股票、商品、期权、ETF和指数的CFD。查看我们的实时财经日历. 获取实时市场通知。2000+ Instruments。</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11444535488_cpi%2BWorldChinese1SearchPartners-1408_cp%2B137328966841_agi%2BTrading.Trading_English.AT_agn%2Btrading_ks%2Bkwd-10427121_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIqKLp9Iu59gIVF1pgCh2nkw3WEAAYASAAEgLdPfD_BwE</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; ALP-AL00 Build/HUAWEIALP-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G391" s="2" t="n">
+        <v>44629.89703810363</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiZ3uPxkbn2AhXRwpYKHZqGAK4YABAAGgJ0bA&amp;sig=AOD64_2v_AFgSYTZ0clJsrwV8Dm9mi2WdQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=OawoYoePOoKJmAXFkK-gAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNkXaABwAHgCgAGEAYgBhASSAQMwLjSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Plus500 CFD - Crypto Trading - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMImd7j8ZG59gIV0cKWCh2ahgCuEAAYASAAEgKwBPD_BwE</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_saved/exact_country_log.xlsx
+++ b/data_saved/exact_country_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M391"/>
+  <dimension ref="A1:M506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24776,10 +24776,8 @@
       <c r="M390" t="inlineStr"/>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
+      <c r="A391" t="n">
+        <v>390</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -24807,7 +24805,7 @@
         </is>
       </c>
       <c r="G391" s="2" t="n">
-        <v>44629.89703810363</v>
+        <v>44629.89703810185</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
@@ -24835,6 +24833,6793 @@
         </is>
       </c>
       <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G392" s="2" t="n">
+        <v>44629.9124822338</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi3hJ7ulrn2AhVBy5YKHS9eCmoYABAAGgJ0bA&amp;sig=AOD64_18Qw4qjaTZCLXoFbgwriV4SKHntQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=cLEoYs_SPOqumAXWioeADA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgKYOQXaABwAHgCgAFpiAGXA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>2022 crypto CFD Trading - Buy &amp; Sell Cryptocurrency CFDs</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated Broker, 0 Commissions&amp;Tight Spreads. Award winning CFD-Platform。Live Quotes。</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIt4Se7pa59gIVQcuWCh0vXgpqEAAYASAAEgKdjfD_BwE</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.0 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G393" s="2" t="n">
+        <v>44629.9180575463</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj7pY7UmLn2AhUOxZYKHbnCB64YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3gTZKwCdwznk7_ADVBzpmOs0y9uw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=U7MoYpG1BMy2mAWNwqeABA&amp;iflsig=AHkkrS4AAAAAYijBY_Dh7xdxS46a8vx0k5s5Z549r7qo&amp;ved=0ahUKEwjRqpnSmLn2AhVMG6YKHQ3hCUAQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgNYOoXaABwAHgAgAF1iAGxA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>Plus500 Trading Platform - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI-6WO1Ji59gIVDsWWCh25wgeuEAAYASAAEgJiiPD_BwE</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G394" s="2" t="n">
+        <v>44629.94917106481</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiJzcfVorn2AhWVrpYKHSsDBEQYABAAGgJ0bA&amp;sig=AOD64_2umi426lVWCLl2J8541yaneqyQNQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=0b0oYtnSIobY0AS6t6zoCA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOgXaABwAHgAgAHVAYgBvgaSAQMyLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>Plus500 CFD - Crypto Trading - CFDs on Bitcoin, Ethereum</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIic3H1aK59gIVla6WCh0rAwREEAAYASAAEgKuIvD_BwE</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.105 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G395" s="2" t="n">
+        <v>44629.95045541666</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi9j_GKo7n2AhVw10wCHVNjAdoYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1aFQhXilAY5asGSnsJwd-OvRZcvw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Qr4oYvjQB7G9mAW3sp-IBg&amp;iflsig=AHkkrS4AAAAAYijMUnGHUmeL6Knfm5xLFgp1J_hNwoiu&amp;ved=0ahUKEwj4-fGIo7n2AhWxHqYKHTfZB2EQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYOkXaABwAHgBgAFyiAGuA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>CFDs: Bitcoin, Ethereum &amp; More - Free Demo, 0 Commissions</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIvY_xiqO59gIVcNdMAh1TYwHaEAAYASAAEgJcrPD_BwE</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G396" s="2" t="n">
+        <v>44629.95124467593</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiS9K6ro7n2AhUSeSoKHXjpD2gYABAAGgJ0bQ&amp;sig=AOD64_04t1vwbi_GQWs0pCRbdhl6DLSF_g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=g74oYqCKIsPfmAXao56YBA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgKYNwXaABwAHgAgAFeiAHqApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Trade CFDs on Crypto in 2022 - Buy &amp; Sell Cryptocurrency CFDs</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>100% Transparent Fees</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIkvSuq6O59gIVEnkqCh146Q9oEAAYASAAEgLTTvD_BwE</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G397" s="2" t="n">
+        <v>44629.96007921296</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwizorKXprn2AhXL15YKHaT8AO4YABAAGgJ0bA&amp;sig=AOD64_0eXdvULP8yZJZtPvObXOJAYV8PEA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=gcEoYqDQKqiFr7wP69iRuAo&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNsXaABwAHgBgAFviAGkA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Trade CFDs on Crypto in 2022 - 2022 Bitcoin CFDs</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated...</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIs6Kyl6a59gIVy9eWCh2k_ADuEAAYASAAEgLNX_D_BwE</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; TECNO KD7h Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G398" s="2" t="n">
+        <v>44629.9692490625</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiR0oeRqbn2AhWbvZYKHdFwD9sYABAAGgJ0bA&amp;sig=AOD64_2A-1Ngh9i5OOLxkqkdc3bd9e6sGw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=mcQoYvSUMriUr7wPpaqmuAo&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYN8XaABwAHgAgAFjiAH-ApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>CFD 平台交易 - CFD 線上交易 - CFD 買賣 平台 - plus500.at</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11444535488_cpi%2BWorldChinese1SearchPartners-1408_cp%2B137328966841_agi%2BTrading.Trading_English.AT_agn%2Btrading_ks%2Bkwd-10427121_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIkdKHkam59gIVm72WCh3RcA_bEAAYASAAEgJMSfD_BwE</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G399" s="2" t="n">
+        <v>44629.97296570602</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiq9KSqqrn2AhUHdmAKHb03AXcYABAAGgJ0bQ&amp;sig=AOD64_0FV2lwkxbHH7SjbJvqxhlSWm-55Q&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=28UoYu_NCKGxmAXo6IigAw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gJYN4XaABwAHgBgAFmiAGDA5IBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>CFD 平台交易 - CFD 網 上 交易 平台 - cfd 平台 - plus500.at</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>资本有风险. 关于加密数字货币、外汇、股票、商品、期权、ETF和指数的CFD。查看我们的实时财经日历. 获取实时市场通知。Attractive Leverage。Analysis Tools。2000+ Instruments。</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11444535488_cpi%2BWorldChinese1SearchPartners-1408_cp%2B137328966841_agi%2BTrading.Trading_English.AT_agn%2Btrading_ks%2Bkwd-10427121_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIqvSkqqq59gIVB3ZgCh29NwF3EAAYASAAEgJorPD_BwE</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.1 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G400" s="2" t="n">
+        <v>44629.97553486111</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiZ1vyTq7n2AhXPwhYFHbEjA8sYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1840zdf9MbKlep1RLCubU1u0KGtA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=uMYoYpD3LIOVr7wP4t-Q-As&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgKYN8XaABwAHgBgAFoiAGXA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>Economic Calendar</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gbraid=0AAAAAD2rQn8od-FIr81uT3c5LZl60JB4A&amp;gclid=EAIaIQobChMImdb8k6u59gIVz8IWBR2xIwPLEAAYASAAEgI0zvD_BwE</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G401" s="2" t="n">
+        <v>44629.98600549768</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjC6_XCrrn2AhWQQ2AKHdjnAnAYABAAGgJ0bQ&amp;sig=AOD64_13MfllX7cn_aeUloZWp1cdOp7PhQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=P8ooYpCvPM6Cr7wPp4-2gAI&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOUXaABwAHgAgAGMAogBhwiSAQMyLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>Bitcoin CFD Trading - CFDs on BTC, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>Plus500 Trader's Guide</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIwuv1wq659gIVkENgCh3Y5wJwEAAYASAAEgLSOfD_BwE</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; HRY-AL00a Build/HONORHRY-AL00a) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G402" s="2" t="n">
+        <v>44629.98902817129</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiozfe_r7n2AhUHeSoKHRIVABUYABAAGgJ0bQ&amp;sig=AOD64_0OMCC1UaMzJplQkklz95C7TviaGg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=RssoYofdI9uGr7wPkLGZ0AI&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYOIXaABwAHgBgAFoiAGVA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIqM33v6-59gIVB3kqCh0SFQAVEAAYASAAEgIP1vD_BwE</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.2 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G403" s="2" t="n">
+        <v>44630.00797424769</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjhlK_Mtbn2AhWD0ZYKHchpCOkYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2yDELH5rKB7ML8c0WkSQT-ZjSfFQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=qtEoYrTiI4-S0gT2-rbwDA&amp;iflsig=AHkkrS4AAAAAYijfuq2eN9PG1kvn6LLxwHyuWpynBZeq&amp;ved=0ahUKEwi034TKtbn2AhUPiZQKHXa9Dc4Q4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYNsXaABwAHgBgAGAAYgB5AOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Seize the Market Volatility - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI4ZSvzLW59gIVg9GWCh3IaQjpEAAYASAAEgJ5wfD_BwE</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>sa-IN</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>sa-IN</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G404" s="2" t="n">
+        <v>44630.02791390046</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjYrYmCvLn2AhUG2JYKHSTTDSgYABAAGgJ0bA&amp;sig=AOD64_0eve9kdNR3Nmk33g3-1wBd4dV9XA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=ZtgoYtXOKIeKr7wPwcWl6A8&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOUXaABwAHgCgAFciAHqApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>Plus500 Trading Platform - CFDs on Bitcoin, Ethereum</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI2K2Jgry59gIVBtiWCh0k0w0oEAAYASAAEgKy3fD_BwE</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G405" s="2" t="n">
+        <v>44630.02946947917</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjWuZnCvLn2AhV73EwCHYe0AEYYABAAGgJ0bQ&amp;sig=AOD64_1kRZt8NLdB8Vdkaldr3vig92q37g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=7dgoYvWACumEr7wPv_-xKA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNIXaABwAHgDgAFmiAGSA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>Seize the Market Volatility - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI1rmZwry59gIVe9xMAh2HtABGEAAYASAAEgKWLfD_BwE</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:95.0) Gecko/20100101 Firefox/95.0</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G406" s="2" t="n">
+        <v>44630.03056069445</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjXo_juvLn2AhXB0JYKHSFIBssYABAAGgJ0bA&amp;sig=AOD64_2tlWcI0OzI6gsz40Mq7B_YizmAag&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=S9koYri8AvaTr7wPwqmG0A0&amp;iflsig=AHkkrS4AAAAAYijnW6z50TKPZOQBo7c3pq9U0t2An0bA&amp;ved=0ahUKEwj4jYXtvLn2AhX2yYsBHcKUAdoQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOQXaABwAHgBgAFpiAGKA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Plus500 CFD - Crypto Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements!</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI16P47ry59gIVwdCWCh0hSAbLEAAYASAAEgIS3PD_BwE</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.1 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G407" s="2" t="n">
+        <v>44630.03092422453</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj_lfH9vLn2AhVMq5YKHb4qBdAYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2eIdcxfuvqerkhGvQutt4mHgRK8A&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=atkoYpP0EK2wmAX5oIeAAw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYO0XaABwAHgBgAFUiAHEApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>2022 crypto CFD Trading - Buy &amp; Sell Cryptocurrency CFDs</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>100% Transparent Fees</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gbraid=0AAAAAD2rQn8od-FIr81uT3c5LZl60JB4A&amp;gclid=EAIaIQobChMI_5Xx_by59gIVTKuWCh2-KgXQEAAYASAAEgI7bvD_BwE</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G408" s="2" t="n">
+        <v>44630.03712228009</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi27bX9vrn2AhVTWWAKHc5NC4cYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2kvkz4O_jm1BOjcui770Uivcd1Hw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=gtsoYrbvDYeEr7wP3oeAgAg&amp;iflsig=AHkkrS4AAAAAYijpkvhsrq2njYMS7q3AaoWD2T6L0Z5P&amp;ved=0ahUKEwi2uL_7vrn2AhUHwosBHd4DAIAQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNAXaABwAHgAgAFviAGZA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>Free Demo, 0 Commissions - CFDs on BTC, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMItu21_b659gIVU1lgCh3OTQuHEAAYASAAEgJ3mPD_BwE</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:98.0) Gecko/20100101 Firefox/98.0</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G409" s="2" t="n">
+        <v>44630.03751756944</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj4vtSNv7n2AhWg1UwCHREFAT4YABAAGgJ0bQ&amp;sig=AOD64_2So1ovoPhQIP-HlfCI9bbuYxJonA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=pNsoYpqYCoGX-Aai767YAQ&amp;iflsig=AHkkrS4AAAAAYijptANNpPCWsEivI6tFnz4yTuOeKOa-&amp;ved=0ahUKEwia-taLv7n2AhWBC94KHaK3CxsQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYOQXaABwAHgBgAGFAYgB8AOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - 2022 crypto CFD Trading</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>World Markets ETFs · Plus500 Trader's Guide · Live Market Price Alerts</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI-L7Ujb-59gIVoNVMAh0RBQE-EAAYASAAEgLUm_D_BwE</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:97.0) Gecko/20100101 Firefox/97.0</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G410" s="2" t="n">
+        <v>44630.06104025463</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiRncnWxrn2AhUVrpYKHecFCw0YABAAGgJ0bA&amp;sig=AOD64_3PNr2RDxcYg7yETSihedSdvnGQ-g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=k-MoYrHnHduB1e8P472GuA8&amp;iflsig=AHkkrS4AAAAAYijxo7Dn6HP192oHsu-jvbQKaU2M9mg4&amp;ved=0ahUKEwjx_KTUxrn2AhXbQPUHHeOeAfcQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYNYXaABwAHgBgAF_iAHaA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>Plus500 Trader's Guide · Atletico Madrid &amp; Plus500 · World Markets ETFs</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIkZ3J1sa59gIVFa6WCh3nBQsNEAAYASAAEgL2DPD_BwE</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G411" s="2" t="n">
+        <v>44630.06176329861</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjl08H0xrn2AhVl05YKHYyrAFQYABAAGgJ0bA&amp;sig=AOD64_2uRqkXdpSTjFks1fJjEWJp_qep9g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=0uMoYse_MeCB1e8P9JC_4A4&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOUXaABwAHgCgAFYiAHXApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>Free Demo, 0 Commissions - CFDs on BTC, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI5dPB9Ma59gIVZdOWCh2MqwBUEAAYASAAEgK-JfD_BwE</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; TECNO KD7h Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>mr-IN</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>mr-IN</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G412" s="2" t="n">
+        <v>44630.06706844908</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiAwI3PyLn2AhXRq5YKHQzrBSoYABAAGgJ0bA&amp;sig=AOD64_0PwKc5UvD804zJAKyevpHYNzxsuw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=neUoYsCxF5yGr7wP7e2EGA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOYXaABwAHgCgAGuAYgB_wSSAQMwLjSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>Free Demo, 0 Commissions - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIgMCNz8i59gIV0auWCh0M6wUqEAAYASAAEgIIuvD_BwE</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; HRY-AL00a Build/HONORHRY-AL00a) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G413" s="2" t="n">
+        <v>44630.07207415509</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwicrICdyrn2AhXSUGAKHTchBkAYABAAGgJ0bQ&amp;sig=AOD64_3nX3IFySLnLdxN733Jv5Sm7oDiDQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=TOcoYqfLN_KWr7wPz9i_wAY&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYN8XaABwAHgBgAFbiAHhApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>Plus500 CFD - Crypto Trading - Bitcoin CFD Trading</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMInKyAncq59gIV0lBgCh03IQZAEAAYASAAEgKvIfD_BwE</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G414" s="2" t="n">
+        <v>44630.11846844907</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjZ_d6U2bn2AhWVrpYKHSsDBEQYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0g81n6faxjJsLl2v7qmkf5BhVPRA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=9fYoYuz1AeOGr7wPh_mTuAk&amp;iflsig=AHkkrS4AAAAAYikFBeOgKjDx0_DtvqjPsAkbqvlmcQTz&amp;ved=0ahUKEwisxJGS2bn2AhVjw4sBHYf8BJcQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNkXaABwAHgBgAF2iAG8A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI2f3elNm59gIVla6WCh0rAwREEAAYASAAEgJ2gPD_BwE</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G415" s="2" t="n">
+        <v>44630.12400932871</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiJh4X52rn2AhUBV2AKHZiaATUYABAAGgJ0bQ&amp;sig=AOD64_2QG82Bh69mhWKzDJ5FHvjKzm6_fA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=1fgoYv5Sw_XAA6bMpuAE&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNkXaABwAHgBgAFkiAGLA5IBAzIuMpgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - Trade CFDs on Crypto in 2022</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIiYeF-dq59gIVAVdgCh2YmgE1EAAYASAAEgLLIfD_BwE</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:96.0) Gecko/20100101 Firefox/96.0</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G416" s="2" t="n">
+        <v>44630.1261631713</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjBtvPR27n2AhXo3EwCHR4ICD4YABAAGgJ0bQ&amp;sig=AOD64_1ksDobkIq_wTUxOvEmblV5oO3bHA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=j_koYqn3HIexmAXLwqP4BA&amp;iflsig=AHkkrS4AAAAAYikHnzghXjydMVzGjNn9e3Zp_ObyQtoI&amp;ved=0ahUKEwjp-vXP27n2AhWHGKYKHUvhCE8Q4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYNoXaABwAHgCgAFziAGoA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>2022 crypto CFD Trading - Buy &amp; Sell Cryptocurrency CFDs</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIwbbz0du59gIV6NxMAh0eCAg-EAAYASAAEgKLGPD_BwE</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.55 Safari/537.36 Edg/96.0.1054.34</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G417" s="2" t="n">
+        <v>44630.12718444444</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj_iNn727n2AhVTPmAKHXLdAf8YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_14xjDvZOBh9dZnRXpIyCbJfCT5ZQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=5vkoYvOBLcKD-AaQ1bWoAQ&amp;iflsig=AHkkrS4AAAAAYikH9gqUEl7N5Ze6hulJVS-RCspfKCe-&amp;ved=0ahUKEwjzjMT527n2AhXCAd4KHZBqDRUQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYPkXaABwAHgCgAFhiAHyApIBATSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Trade CFDs on Crypto in 2022 - plus500.at</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>Plus500 is the Main Sponsor of Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI_4jZ-9u59gIVUz5gCh1y3QH_EAAYASAAEgI7WvD_BwE</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; ALP-AL00 Build/HUAWEIALP-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>mr-IN</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>mr-IN</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G418" s="2" t="n">
+        <v>44630.13040693287</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjOg8iA3bn2AhVKdmAKHZHzDRMYABAAGgJ0bQ&amp;sig=AOD64_3K1XBX9pZk9y7hfiw67KRSzNKtiw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=_fooYp_QJo6Ur7wP8oiv0Ac&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNIXaABwAHgCgAFhiAH5ApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Plus500™ CFD: Crypto Trading - Bitcoin CFD Trading</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIzoPIgN259gIVSnZgCh2R8w0TEAAYASAAEgKIg_D_BwE</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G419" s="2" t="n">
+        <v>44630.13841997685</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi9-MTK37n2AhWGVWAKHZkRDBsYABAAGgJ0bQ&amp;sig=AOD64_0YPB4ebtgkUm5T7_RNAUOwQal7WA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=sf0oYrjXILGVmAWqzYDoBQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNoXaABwAHgAgAFuiAGyA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Trade CFDs on Crypto in 2022 - Plus500 Trading Platform</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIvfjEyt-59gIVhlVgCh2ZEQwbEAAYASAAEgIU4_D_BwE</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G420" s="2" t="n">
+        <v>44630.14213763889</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwijn_bj4Ln2AhVXWmAKHUEqD28YABAAGgJ0bQ&amp;sig=AOD64_1-o3S-ClgX6_VjawdJEPNIn5iLfg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=8_4oYuDyHa-UmAXkjarAAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYOcXaABwAHgBgAFciAHgApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Trade CFDs on Crypto in 2022 - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIo5_24-C59gIVV1pgCh1BKg9vEAAYASAAEgIhHPD_BwE</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G421" s="2" t="n">
+        <v>44630.14477976852</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjb4rXP4bn2AhVGqZYKHVKGC3IYABAAGgJ0bA&amp;sig=AOD64_1zQpHeIndZ376QETyJhDYqLc3_sg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=1P8oYoSTM6-Wr7wPoM292AI&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOcXaABwAHgCgAFfiAHrApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>CFDs on BTC, Ethereum &amp; More - 2022 Bitcoin CFDs</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI2-K1z-G59gIVRqmWCh1ShgtyEAAYASAAEgIFwvD_BwE</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.15; rv:97.0) Gecko/20100101 Firefox/97.0</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G422" s="2" t="n">
+        <v>44630.14978626157</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjd5fae47n2AhXVnsIKHT1XABEYABAAGgJ0bQ&amp;sig=AOD64_0QdrC80CWB4OQulJSOckt9-0gg8Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=iAEpYs-AAo6b-Abx34rIBg&amp;iflsig=AHkkrS4AAAAAYikPmN2wMBUzmPxa7gWL0zvEr0A7E3ZD&amp;ved=0ahUKEwjP5Pec47n2AhWODd4KHfGvAmkQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYPIXaABwAHgCgAGAAYgBugOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>Trade CFDs on Crypto in 2022 - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI3eX2nuO59gIV1Z7CCh09VwAREAAYASAAEgL-5fD_BwE</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.82 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G423" s="2" t="n">
+        <v>44630.15509292824</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiT-9n55Ln2AhWNQ2AKHUV_BQMYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0gxhDTDBPx2KP8u6EnOxcUipQ_BQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=UgMpYpm5L4_zhwPZkIXQCg&amp;iflsig=AHkkrS4AAAAAYikRYoY_pq6iQmJ2vX6uD9lrsZDZwQ3f&amp;ved=0ahUKEwiZqtf35Ln2AhWP-WEKHVlIAaoQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYPAXaABwAHgAgAGCAYgB6gOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>2022 crypto CFD Trading - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIk_vZ-eS59gIVjUNgCh1FfwUDEAAYASAAEgJ1pPD_BwE</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.15; rv:98.0) Gecko/20100101 Firefox/98.0</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G424" s="2" t="n">
+        <v>44630.16167490741</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjltOCI57n2AhWXdmAKHVhxAHcYABAAGgJ0bQ&amp;sig=AOD64_2SYhg-XsoruIo2Hgecvm35rN97fg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=iwUpYrTzEoy9mAWAhK_QBQ&amp;iflsig=AHkkrS4AAAAAYikTm97VrCtjgHD-eqQBgCzj1lg9UsLE&amp;ved=0ahUKEwj05OOG57n2AhWMHqYKHQDCC1oQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYO8XaABwAHgCgAFtiAGRA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>CFDs on Bitcoin, Ethereum - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI5bTgiOe59gIVl3ZgCh1YcQB3EAAYASAAEgJ1OPD_BwE</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:96.0) Gecko/20100101 Firefox/96.0</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G425" s="2" t="n">
+        <v>44630.16658707176</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjJpv7S6Ln2AhXMIWAKHRYTAj8YABAAGgJ0bQ&amp;sig=AOD64_2gXs9I_xJwP5wHSVfC8uFaGReEOA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=MwcpYvNLkYqvvA_uhavYAQ&amp;iflsig=AHkkrS4AAAAAYikVQ4Q-ntKGJZ4mldIIPa5oLsV0n9pM&amp;ved=0ahUKEwizsejQ6Ln2AhURxYsBHe7CChsQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYPYXaABwAHgCgAHFAYgBgASSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Crypto Trading App (CFD)</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIyab-0ui59gIVzCFgCh0WEwI_EAAYASAAEgK9fPD_BwE</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.55 Safari/537.36 Edg/96.0.1054.34</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G426" s="2" t="n">
+        <v>44630.18287744213</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj-xLby7bn2AhXEUGAKHaQPBOwYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2v6g0nEPY2BPc2MAaUA-lTxgYPEA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=swwpYvSDCOqTr7wPuPedmAk&amp;iflsig=AHkkrS4AAAAAYikawxoyWSbNjKfy9DywZoJA5KtQcnKW&amp;ved=0ahUKEwi0qaHw7bn2AhXqyYsBHbh7B5MQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgHYO0XaABwAHgBgAFfiAHqApIBATSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market - plus500.at</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI_sS28u259gIVxFBgCh2kDwTsEAAYASAAEgIvkfD_BwE</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 Edg/98.0.1108.62</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G427" s="2" t="n">
+        <v>44630.18327678241</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiYxuyC7rn2AhWxwUwCHeJKBZYYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1_IVuUjMwwPh0Q3xZnUA9oG_WOfg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=1QwpYq2gJZXV-QaUrZPgDQ&amp;iflsig=AHkkrS4AAAAAYika5deZHrZHbPPssa234qErM2uOb9iR&amp;ved=0ahUKEwjt3tmA7rn2AhWVat4KHZTWBNwQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYNgXaABwAHgAgAFniAGJA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Crypto Trading App (CFD)</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMImMbsgu659gIVscFMAh3iSgWWEAAYASAAEgK0p_D_BwE</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G428" s="2" t="n">
+        <v>44630.18802857639</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjbnsTG77n2AhWYrZYKHRSIB3YYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0tNoFnNk4l1mcDOdmhPxtBQTQ4tw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=cA4pYv-9GKqzmAXa95OQBw&amp;iflsig=AHkkrS4AAAAAYikcgLNjX-4j-d28A217ytAzH2GZEPEj&amp;ved=0ahUKEwj_tcrE77n2AhWqGaYKHdr7BHIQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOkXaABwAHgDgAFuiAGaA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Seize the Market Volatility - plus500.at</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI257Exu-59gIVmK2WCh0UiAd2EAAYASAAEgKPWPD_BwE</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 Edg/98.0.1108.62</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G429" s="2" t="n">
+        <v>44630.19238084491</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwin-eP58Ln2AhVSWWAKHfSbBj0YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2h1s7QVvR02x61t37dyG3lHoTEnQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=5w8pYoSJOfKWr7wPpLWNoAM&amp;iflsig=AHkkrS4AAAAAYikd9_BAuTDGQKWi9Qsmi_54ImrQxwKQ&amp;ved=0ahUKEwjEmNP38Ln2AhVyy4sBHaRaAzQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYPAXaABwAHgBgAFjiAH3ApIBATSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Bitcoin CFD Trading</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>Plus500 is the Main Sponsor of Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIp_nj-fC59gIVUllgCh30mwY9EAAYASAAEgLGpvD_BwE</t>
+        </is>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 8.2.0; ko-kr; SHW-M440S Build/JZO54K) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30 NAVER(inapp; search; 250; 5.2.0)</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G430" s="2" t="n">
+        <v>44630.19582388889</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi39dWH8rn2AhUWrZYKHYfRDBMYABABGgJ0bA&amp;sig=AOD64_0Qmci07VqKorcBFoi7vcXnCcq0zw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=EREpYtuXLoTDmAXUtbioDA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYPEXaABwAHgCgAFgiAHrApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>Buy &amp; Sell Cryptocurrency CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIt_XVh_K59gIVFq2WCh2H0QwTEAAYASAAEgIg-fD_BwE</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G431" s="2" t="n">
+        <v>44630.19896270833</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjXwP2I87n2AhXKZIsKHXU5BloYABAAGgJ0bQ&amp;sig=AOD64_0gktjlvFfWWX9fp99JtBZ-2jngYA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=IBIpYpLQNYeQr7wPq_SQ0A4&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYP0XaABwAHgDgAFniAGQA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - Free Demo, 0 Commissions</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI18D9iPO59gIVymSLCh11OQZaEAAYASAAEgKlLPD_BwE</t>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G432" s="2" t="n">
+        <v>44630.20146167824</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjKo4Lw87n2AhWNZIsKHRy5B88YABAAGgJ0bQ&amp;sig=AOD64_36BV_4Y8xf7wRi2F6By6IKtocztQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=-RIpYrOBA-KsmAXjnZOYCw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gJYNYXaABwAHgCgAFiiAGAA5IBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>Plus500 CFD - Crypto Trading - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIyqOC8PO59gIVjWSLCh0cuQfPEAAYASAAEgLLoPD_BwE</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G433" s="2" t="n">
+        <v>44630.20705355324</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiLy7HW9bn2AhXBXWAKHQsgCcgYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3syYDznGp3d1rrkdD6GGzGYWHJ5g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=3BQpYuLwD5iPr7wPqdOD0A8&amp;iflsig=AHkkrS4AAAAAYiki7JdchqGMxdsXVWwChQhwmkQVC_aG&amp;ved=0ahUKEwjizrfU9bn2AhWYx4sBHanpAPoQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYN4XaABwAHgBgAF3iAG6A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Crypto Trading App (CFD)</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIi8ux1vW59gIVwV1gCh0LIAnIEAAYASAAEgKCofD_BwE</t>
+        </is>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G434" s="2" t="n">
+        <v>44630.21080533565</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwip9_fw9rn2AhWbwhYFHXzoBywYABAAGgJ0bA&amp;sig=AOD64_3YQE1iAiJMHNUMUavCnZ_Sa11GHA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=IBYpYoyXDInFmAWV9KmADA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOwXaABwAHgAgAFkiAH-ApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency%20exchange_ks%2Bkwd-298401903980_tid%2Bp_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIqff38Pa59gIVm8IWBR186AcsEAAYASAAEgKWrPD_BwE</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:91.0) Gecko/20100101 Firefox/91.0 Waterfox/91.6.0</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G435" s="2" t="n">
+        <v>44630.2120540625</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiw-6ak97n2AhVGqZYKHVKGC3IYABAAGgJ0bA&amp;sig=AOD64_1eNATsU3fMzreW4w0OH-6x7a2EcA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=jBYpYqLCBqnFmAX1wbDAAQ&amp;iflsig=AHkkrS4AAAAAYikknM5REiDLEufLTSv85j96fOo0cArb&amp;ved=0ahUKEwiiuK2i97n2AhWpIqYKHfUgDBgQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYO0XaABwAHgCgAGAAYgB2gOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>CFD 買賣 平台 - CFD 平台交易 - plus500.at</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11444535488_cpi%2BWorldChinese1SearchPartners-1408_cp%2B137328966841_agi%2BTrading.Trading_English.AT_agn%2Btrading_ks%2Bkwd-10427121_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIsPumpPe59gIVRqmWCh1ShgtyEAAYASAAEgKs9_D_BwE</t>
+        </is>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; ALP-AL00 Build/HUAWEIALP-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G436" s="2" t="n">
+        <v>44630.22076275463</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiv6pKL-rn2AhVbMSsKHaiXAbAYABABGgJzZg&amp;sig=AOD64_3moFK74zXZUfI2fA-5lsD3drfpGg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=fBkpYo7-HMKWr7wP7bWLgAk&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gJYPEXaABwAHgDgAFiiAHuApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated...</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIr-qSi_q59gIVWzErCh2olwGwEAAYASAAEgK4tfD_BwE</t>
+        </is>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Samsung SM-A025G) AppleWebKit/535.19 (KHTML, like Gecko) Chrome/18.0.1025.166 Mobile Safari/535.19</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>te-IN</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>te-IN</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G437" s="2" t="n">
+        <v>44630.22293100695</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj-kLjk-rn2AhUJmGYCHbkYCZEYABAAGgJzbQ&amp;sig=AOD64_1N0x93JokHC66xhBUZcIggc5kFvA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=NxopYveNLJv4-QabyrD4Ag&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgOYN4XaABwAHgBgAFWiAHPApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>Plus500 Trading Platform - CFDs on BTC, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency%20exchange_ks%2Bkwd-298401903980_tid%2Bp_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI_pC45Pq59gIVCZhmAh25GAmREAAYASAAEgIPCPD_BwE</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 8.2.0; ko-kr; SHW-M440S Build/JZO54K) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30 NAVER(inapp; search; 250; 5.2.0)</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G438" s="2" t="n">
+        <v>44630.22928226852</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiw6Jrq_Ln2AhU3mWYCHWsNBGQYABABGgJzbQ&amp;sig=AOD64_2ugQy2lyuo5hUjU7FfdPSx3rAU3g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=XBwpYrjMM4OXr7wPrKWKyAs&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYOQXaABwAHgBgAFsiAGpA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIsOia6vy59gIVN5lmAh1rDQRkEAAYASAAEgItXvD_BwE</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:98.0) Gecko/20100101 Firefox/98.0</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G439" s="2" t="n">
+        <v>44630.23058152778</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjRhduf_bn2AhVogksFHWikA3EYABAAGgJzZg&amp;sig=AOD64_0-aoa7UqR_fnVAHvK70jGAuoSPgw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=zBwpYv6aNYak0gTrz63QAw&amp;iflsig=AHkkrS4AAAAAYikq3Pu0vGltAN9kF3Zwh9BIf_QTESsJ&amp;ved=0ahUKEwj-sNSd_bn2AhUGkpQKHetnCzoQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYNoXaABwAHgDgAF2iAG6A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI0YXbn_259gIVaIJLBR1opANxEAAYASAAEgIai_D_BwE</t>
+        </is>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G440" s="2" t="n">
+        <v>44630.23281045139</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj_8s37_bn2AhWJfCsKHdYuBbEYABAAGgJzZg&amp;ae=2&amp;sig=AOD64_0hOdU4ywyewdlABllGMEvsKW4c5g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=jR0pYsO0MKuXr7wPk6S6oAc&amp;iflsig=AHkkrS4AAAAAYikrnZpLpBwX9nskym5XDRR0VUC64hkZ&amp;ved=0ahUKEwiDr9P5_bn2AhWry4sBHROSDnQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYOkXaABwAHgCgAFtiAGTA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market - plus500.at</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>100% Transparent Fees · Live Market Price Alerts · Atletico Madrid &amp; Plus500</t>
+        </is>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI__LN-_259gIViXwrCh3WLgWxEAAYASAAEgKVEfD_BwE</t>
+        </is>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; ALP-AL00 Build/HUAWEIALP-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G441" s="2" t="n">
+        <v>44630.25620865741</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiWzcq_hbr2AhWBCysKHe5JDaQYABAAGgJzZg&amp;sig=AOD64_1U9HOoAgHgP5cTjO1mngT5XMjfzQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=cyUpYrLYGMOdhwPAr7f4Cg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOwXaABwAHgBgAFdiAHYApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Crypto Trading App (CFD) - plus500.at</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated...</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIls3Kv4W69gIVgQsrCh3uSQ2kEAAYASAAEgLQMvD_BwE</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G442" s="2" t="n">
+        <v>44630.25689193287</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj0nMbbhbr2AhXUk2YCHQaGCAcYABAAGgJzbQ&amp;ae=2&amp;sig=AOD64_06vx9qwrTIFRfI2y2PS8fQJABWCw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=rSUpYrHzM9SD-AaNmqbQDA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBVgNYO0XaABwAHgCgAFXiAHSApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>100% Transparent Fees</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gbraid=0AAAAAD2rQn8od-FIr81uT3c5LZl60JB4A&amp;gclid=EAIaIQobChMI9JzG24W69gIV1JNmAh0GhggHEAAYASAAEgJ8aPD_BwE</t>
+        </is>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Nokia G20) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.88 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G443" s="2" t="n">
+        <v>44630.27273402778</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi3toHoirr2AhULkmYCHch0CP8YABAAGgJzbQ&amp;ae=2&amp;sig=AOD64_0m4DqfiLPwWq6jWlFSAoocHV2OCg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=BSspYpv2O7LCmAXw4a3wAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNEXaABwAHgCgAFfiAHyApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIt7aB6Iq69gIVC5JmAh3IdAj_EAAYASAAEgI5_vD_BwE</t>
+        </is>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Samsung SM-A025G) AppleWebKit/535.19 (KHTML, like Gecko) Chrome/18.0.1025.166 Mobile Safari/535.19</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G444" s="2" t="n">
+        <v>44630.27796471065</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjVvtq_jLr2AhUNfysKHUPoBYUYABABGgJzZg&amp;sig=AOD64_2Na4uOJ7JxE3PSoIcWcADmBEYdjA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=yiwpYpeXH9LO-QaNxbXACA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOoXaABwAHgBgAFsiAGfA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI1b7av4y69gIVDX8rCh1D6AWFEAAYASAAEgKuJvD_BwE</t>
+        </is>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; BLA-AL00 Build/HUAWEIBLA-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G445" s="2" t="n">
+        <v>44630.29653719907</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiYl-O8krr2AhVakmYCHcUFD0EYABAAGgJzbQ&amp;sig=AOD64_3dSl_vQ_sJadE9Nis8aPIO4PxW5A&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=DjMpYsbhJ8P5wQOc95vgCg&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gHYOAXaABwAHgCgAFliAHxApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>恒生 外匯及貴金屬買賣優惠 - 必中幸運賞 最高有機會獲贈£250</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>投資涉及風險，外匯及貴金屬買賣的虧損風險可以十分重大。服務及優惠附帶條款。</t>
+        </is>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>https://www.hangseng.com/cms/emkt/pmo/grp01/p27/chi/index.html?view=d2g?cid=Investment:RMT:sem:googlesem&amp;gclid=EAIaIQobChMImJfjvJK69gIVWpJmAh3FBQ9BEAAYASAAEgKryfD_BwE&amp;gclsrc=aw.ds</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Samsung SM-A025G) AppleWebKit/535.19 (KHTML, like Gecko) Chrome/18.0.1025.166 Mobile Safari/535.19</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G446" s="2" t="n">
+        <v>44630.30127795139</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj8_pqAlLr2AhVOD3IKHbj7ApYYABAAGgJzZg&amp;sig=AOD64_2L231OO_An_yMf5BWXkon0cB2sUA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=qDQpYpmwOamYseMP7LGV-Ag&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOMXaABwAHgBgAFciAHlApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market - plus500.at</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>Check Out the variety of Cryptocurrencies in our platform! CFDs, Capital at risk。Join Millions of Traders who already chosen Plus500! Live Quotes。</t>
+        </is>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI_P6agJS69gIVTg9yCh24-wKWEAAYASAAEgITsPD_BwE</t>
+        </is>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; TECNO KD7h Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G447" s="2" t="n">
+        <v>44630.30921442129</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjf06PHlrr2AhV-kmYCHUa8DcAYABAAGgJzbQ&amp;sig=AOD64_1koxqnj_4HV7TdWBUbPSOOn7UoOg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=VjcpYs-fJcuRseMP0q2_oA0&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYO4XaABwAHgBgAFaiAHcApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI39Ojx5a69gIVfpJmAh1GvA3AEAAYASAAEgLpJfD_BwE</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; M2103K19PG) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.101 Mobile Safari/537.3</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="n">
+        <v>44630.31442619213</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiy8vmdmLr2AhXDmmYCHWRbA3EYABAAGgJzbQ&amp;ae=1&amp;sig=AOD64_1tmLtRHA0OV75yjWHgGJ_FsciYtA&amp;q&amp;adurl=https://www.hangseng.com/cms/emkt/pmo/grp01/p27/chi/index.html?view%3Dd2g?cid%3DInvestment:RMT:sem:googlesem%26gclsrc%3Daw.ds%26gclid%3DEAIaIQobChMIsvL5nZi69gIVw5pmAh1kWwNxEAAYASAAEgJy1_D_BwE</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=GDkpYrWpLKrhwAODx5zgCg&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgHYOwXaABwAHgDgAF6iAHNA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>恒生 外匯及貴金屬買賣優惠 - 必中幸運賞 最高有機會獲贈£250</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>投資涉及風險，外匯及貴金屬買賣的虧損風險可以十分重大。服務及優惠附帶條款。</t>
+        </is>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>https://www.hangseng.com/cms/emkt/pmo/grp01/p27/chi/index.html?view=d2g?cid=Investment:RMT:sem:googlesem&amp;gclid=EAIaIQobChMIsvL5nZi69gIVw5pmAh1kWwNxEAAYASAAEgJy1_D_BwE&amp;gclsrc=aw.ds</t>
+        </is>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.55 Safari/537.36 Edg/96.0.1054.43</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="n">
+        <v>44630.33774763889</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjjruren7r2AhVkk2YCHRxRCTkYABAAGgJzbQ&amp;ae=2&amp;sig=AOD64_3IPh7CUxx58brKGEqIWmJNyKBIUQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=90ApYtbSIMiLseMPy-KNiAo&amp;iflsig=AHkkrS4AAAAAYilPB6BFmNXh3T7JDmG5XEMUTgJLKDbF&amp;ved=0ahUKEwiWqsTcn7r2AhXIRWwGHUtxA6EQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYOcXaABwAHgAgAHkAYgB8AaSAQMyLTSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>Plus500 Trader's Guide · Atletico Madrid &amp; Plus500 · Economic Calendar</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI467q3p-69gIVZJNmAh0cUQk5EAAYASAAEgJvFfD_BwE</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G450" s="2" t="n">
+        <v>44630.35188298611</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjtlY-lpLr2AhU3k2YCHR4FBOsYABAAGgJzbQ&amp;sig=AOD64_060yAR4Z3lDDZ9WP1oOASWyEoUrA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=vUUpYoSoD7GUseMPgcOekA4&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gJYPQXaABwAHgBgAFeiAHfApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI7ZWPpaS69gIVN5NmAh0eBQTrEAAYASAAEgJExvD_BwE</t>
+        </is>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4476.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G451" s="2" t="n">
+        <v>44630.35312953703</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiP3MPYpLr2AhWYk2YCHW9_B_cYABAAGgJzbQ&amp;ae=2&amp;sig=AOD64_2FfaOwH8rYT-JmN64T8SL3xtiU-A&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=KUYpYre0CdmRseMPneqniAQ&amp;iflsig=AHkkrS4AAAAAYilUOegW8oXxQWileHhll1tRfSe_rYg_&amp;ved=0ahUKEwj37MXWpLr2AhXZSGwGHR31CUEQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNYXaABwAHgCgAF8iAHPA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements!</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIj9zD2KS69gIVmJNmAh1vfwf3EAAYASAAEgJTyvD_BwE</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; moto g play (2021)) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/85.0.4183.127 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G452" s="2" t="n">
+        <v>44630.35684921296</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwinibrxpbr2AhWsnUsFHZOnAnQYABAAGgJzZg&amp;ae=2&amp;sig=AOD64_2OQmHLMrC5g-TCBhgSkWaErFTfmw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=aUcpYv_NKpSdhwOWpJDgCA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gMYOkXaABwAHgCgAF1iAHDA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIp4m68aW69gIVrJ1LBR2TpwJ0EAAYASAAEgJxIvD_BwE</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>452</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; BLA-AL00 Build/HUAWEIBLA-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="n">
+        <v>44630.36784597222</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjJ8by2qbr2AhVYW2AKHW5IAz0YABABGgJ0bQ&amp;sig=AOD64_3iMoSMEervOt5WdKtx95XFbJ8DTg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=H0spYsyFMdDI-Qal_JaYAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNwXaABwAHgCgAFYiAHUApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIyfG8tqm69gIVWFtgCh1uSAM9EAAYASAAEgIycfD_BwE</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>453</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.82 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="n">
+        <v>44630.38388398148</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj_r8DLrrr2AhWKJGAKHYs1D3EYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_12g22xv9AlUydv1mYh9wLO9Okk1w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=ilApYt6TEuLemAWN9bfQAg&amp;iflsig=AHkkrS4AAAAAYilemph8kDzsKvXmFAZieYoi8tR9T3sG&amp;ved=0ahUKEwjegMnJrrr2AhViL6YKHY36DSoQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYP8XaABwAHgCgAFpiAGJA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency%20exchange_ks%2Bkwd-298401903980_tid%2Bp_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI_6_Ay6669gIViiRgCh2LNQ9xEAAYASAAEgKxAfD_BwE</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>454</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2045) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/74.0.3729.136 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="n">
+        <v>44630.38429954861</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwixyK3crrr2AhWHqZYKHbWfBSYYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0JixpCaKcN-isKB3pyz_oVH_GHTw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=qlApYrLGFvqUr7wP-K2l4Ao&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYO0XaABwAHgCgAFsiAGhA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated Broker, 0 Commissions&amp;Tight Spreads. Award winning CFD-Platform。24/7 Customer Support。</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIscit3K669gIVh6mWCh21nwUmEAAYASAAEgI7ifD_BwE</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>455</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36 Edg/96.0.1054.62</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="n">
+        <v>44630.39226574074</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiG7-Wksbr2AhVK15YKHQTTAi0YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0Qs4xCK6gRTzObYIDVXCpyYUEktw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=XVMpYpXvEoj90ASY7qK4AQ&amp;iflsig=AHkkrS4AAAAAYilhbRG5n_ZJijuA7DgP9EfG3IP3h87M&amp;ved=0ahUKEwjVkaqisbr2AhWIPpQKHRi3CBcQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYNQXaABwAHgBgAFviAGqA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>Plus500 is the Main Sponsor of Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIhu_lpLG69gIVSteWCh0E0wItEAAYASAAEgLl2vD_BwE</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>456</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="n">
+        <v>44630.55164949074</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiep5PL5Lr2AhVY15YKHd67D4oYABAAGgJ0bA&amp;sig=AOD64_1ozIJwb7wT_1-Zu23TiJZa9FLAOg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=KYkpYrHpB9uGr7wPwpK96A0&amp;iflsig=AHkkrS4AAAAAYimXOfG6MNGRe9IwDogKqkAcoaqZBWtW&amp;ved=0ahUKEwjxoZ_J5Lr2AhVbw4sBHUJJD90Q4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOgXaABwAHgCgAFuiAGaA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>Plus500 is the Main Sponsor of Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMInqeTy-S69gIVWNeWCh3euw-KEAAYASAAEgJeUPD_BwE</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>457</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36 Edg/96.0.1054.53</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="n">
+        <v>44630.5590622801</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiI6a785rr2AhVy05YKHZCdDuMYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3udMfBL5A4--gxO4uTlduPF96Qpw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=qIspYvTtGoKTr7wP9dusoAM&amp;iflsig=AHkkrS4AAAAAYimZuGNIHGCg2E4pRj-PKCRKp0cwzey8&amp;ved=0ahUKEwj04Yv65rr2AhWCyYsBHfUtCzQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYOUXaABwAHgBgAFgiAHqApIBATSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>World Markets ETFs · Live Market Price Alerts · Economic Calendar · Real Time Index Rates</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIiOmu_Oa69gIVctOWCh2QnQ7jEAAYASAAEgJ71PD_BwE</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>458</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4515.131 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="n">
+        <v>44630.55973914351</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjozKmY57r2AhXSVWAKHd2bAc4YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2Jt8EpldRdo9m_y81r2VqRMAfgyw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=44spYvzBK8aUr7wPlYmj0As&amp;iflsig=AHkkrS4AAAAAYimZ8y6WZk14mZXCQPvvXft6L1wd1j9g&amp;ved=0ahUKEwi8v62W57r2AhVGyosBHZXECLoQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYOIXaABwAHgCgAFqiAGGA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI6MypmOe69gIV0lVgCh3dmwHOEAAYASAAEgKvdPD_BwE</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>459</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G460" s="2" t="n">
+        <v>44630.56603012732</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi5mL-b6br2AhVQQWAKHcRcDTYYABAAGgJ0bQ&amp;sig=AOD64_2HqpYI58rF3llayac-zmcqj6muwQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=A44pYsDBEI_W0gSnybOoCQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOAXaABwAHgBgAFeiAHyApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIuZi_m-m69gIVUEFgCh3EXA02EAAYASAAEgKD0fD_BwE</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>460</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2108) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/83.0.4103.106 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G461" s="2" t="n">
+        <v>44630.57117783565</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjuo6fu6rr2AhWRtpYKHb1-C3gYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3FpjOrl0hMROijsYb9_MYEBYgRmQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=vY8pYuSBFf6Or7wPjPOKuAw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOcXaABwAHgBgAFaiAHfApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI7qOn7uq69gIVkbaWCh29fgt4EAAYASAAEgJ8JvD_BwE</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>461</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone13,3; U; CPU iPhone OS 14_0 like Mac OS X) AppleWebKit/602.1.50 (KHTML, like Gecko) Version/10.0 Mobile/15E148 Safari/602.1</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G462" s="2" t="n">
+        <v>44630.5722118287</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiD-ZCa67r2AhUOBGAKHZEjDt8YABAAGgJ0bQ&amp;sig=AOD64_1IX9IGtKUg9dL-QC-seMSdfXLtNw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=GZApYuOyCbOHr7wP2fuHyAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBVgQYN4XaABwAHgCgAFeiAHyApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>World Markets ETFs</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gbraid=0AAAAAD2rQn_4DenU3-_7CDYHlJqU35zRZ&amp;gclid=EAIaIQobChMIg_mQmuu69gIVDgRgCh2RIw7fEAAYASAAEgIYY_D_BwE</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>462</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2045) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/74.0.3729.136 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G463" s="2" t="n">
+        <v>44630.5798153588</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjK2rLT7br2AhWDdmAKHd0vBnsYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1i04G0tsD-yQ9MaVGomcBEqd6-xQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=qpIpYvO5A6WFr7wPt9G-sAo&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYOgXaABwAHgBgAFuiAGVA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIytqy0-269gIVg3ZgCh3dLwZ7EAAYASAAEgJXDvD_BwE</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>463</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 Edg/98.0.1108.62</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G464" s="2" t="n">
+        <v>44630.58617532408</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjgqbvZ77r2AhXRUGAKHUFlCnAYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0SOCFLKTORl6P8kJoYi5dHvbXezw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=zpQpYqWWGYzemAXfj67wCA&amp;iflsig=AHkkrS4AAAAAYimi3nrphQ59k9XvjVIasuZp_UhD3T13&amp;ved=0ahUKEwilterW77r2AhUML6YKHd-HC44Q4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYPUXaABwAHgBgAGNAYgBkgSSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI4Km72e-69gIV0VBgCh1BZQpwEAAYASAAEgL6lfD_BwE</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>464</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>ta-IN</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G465" s="2" t="n">
+        <v>44630.58814013889</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjr6L6q8Lr2AhVxwRYFHeJBDhEYABAAGgJ0bA&amp;sig=AOD64_1Y2HHT0XOJ4wfbwgb0BMtts1Rmkg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=eZUpYtnfL4iJmAXflKPABw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gJYOkXaABwAHgCgAFWiAHOApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Trade CFDs on Crypto in 2022</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI6-i-qvC69gIVccEWBR3iQQ4REAAYASAAEgI6MfD_BwE</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>465</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; HRY-AL00a Build/HONORHRY-AL00a) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G466" s="2" t="n">
+        <v>44630.5913330324</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiIz5Gu8br2AhXWZIsKHWTqCPwYABAAGgJ0bQ&amp;sig=AOD64_097QC6M10xZewA4YKCbRIq8YAhXA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=jZYpYo-XLLKCr7wPvc6K8Ao&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYOUXaABwAHgCgAFyiAH2ApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIiM-RrvG69gIV1mSLCh1k6gj8EAAYASAAEgI8E_D_BwE</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>466</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2045) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/74.0.3729.136 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G467" s="2" t="n">
+        <v>44630.60805884259</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjEpInf9rr2AhWDMyoKHV-1CcEYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3kM-weCjz81OmUEV9yAFrTEPhQig&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=MpwpYonZG8mVr7wPwsqbiAo&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gJYOcXaABwAHgBgAFwiAGQA5IBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIxKSJ3_a69gIVgzMqCh1ftQnBEAAYASAAEgJ_6PD_BwE</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>467</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4476.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G468" s="2" t="n">
+        <v>44630.61330563657</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiCprq3-Lr2AhVGTmAKHR-DDF4YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2eNRBOBGYlEkxJKyE_5pgp7jkwyA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=-J0pYp2KF5C0mAXHpoaAAw&amp;iflsig=AHkkrS4AAAAAYimsCIg3Aw_Q1x1IsFTkZ-L68Iql09KO&amp;ved=0ahUKEwid5ry1-Lr2AhUQGqYKHUeTATAQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYPAXaABwAHgAgAFviAGhA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIgqa6t_i69gIVRk5gCh0fgwxeEAAYASAAEgJNDfD_BwE</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>468</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/97.0.4692.71 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="n">
+        <v>44630.61366453704</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiCuJ_G-Lr2AhWM15YKHVpeB0QYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0lrSCkRAmG5Fxz34IWCpGoq_ingw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=F54pYsPfH8OmmAXps5_QBQ&amp;iflsig=AHkkrS4AAAAAYimsJzuvq4ubyDcyfWzUtIxgY54io5Jz&amp;ved=0ahUKEwiDx6nE-Lr2AhVDE6YKHenZB1oQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYPIXaABwAHgAgAFriAGJA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency%20exchange_ks%2Bkwd-298401903980_tid%2Bp_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIgrifxvi69gIVjNeWCh1aXgdEEAAYASAAEgLPafD_BwE</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>469</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="n">
+        <v>44630.61530028936</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiG_MGJ-br2AhWCZIsKHbq5ALEYABABGgJ0bQ&amp;sig=AOD64_0hF8VwYoEMyrMeKnbymhCctrNhSg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=pJ4pYq2fFqqxmAW-96ewBg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOcXaABwAHgCgAFeiAHvApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIhvzBifm69gIVgmSLCh26uQCxEAAYASAAEgLU2vD_BwE</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>470</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.55 Safari/537.36 Edg/96.0.1054.34</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G471" s="2" t="n">
+        <v>44630.6185546875</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiB-NGP-rr2AhUOrpYKHf6SDCIYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3h4ke52u5EFMSGD8wbyubMzY0sBQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=vZ8pYtGBFYy9mAWAhK_QBQ&amp;iflsig=AHkkrS4AAAAAYimtzdMbTZeUWXqJxMOQaAF1_RDv2Q88&amp;ved=0ahUKEwiR1LuN-rr2AhWMHqYKHQDCC1oQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYOwXaABwAHgAgAFtiAGhA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market - plus500.at</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIgfjRj_q69gIVDq6WCh3-kgwiEAAYASAAEgLNpfD_BwE</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>471</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G472" s="2" t="n">
+        <v>44630.62489366898</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjLo-GU_Lr2AhWjwRYFHUUSDK8YABAAGgJ0bA&amp;sig=AOD64_172V_wTlZksdarkjUYUUhL_zol0Q&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=4aEpYr6VCdWWr7wP9bGvkAM&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYN8XaABwAHgAgAFpiAGVA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIy6PhlPy69gIVo8EWBR1FEgyvEAAYASAAEgKqE_D_BwE</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>472</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G473" s="2" t="n">
+        <v>44630.62751445602</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiizd-A_br2AhUJeSoKHWZ-ANcYABAAGgJ0bQ&amp;sig=AOD64_2OVtlh5oVtMjV8BzhFgIIFKLZcLQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=w6IpYufzENHJmAXs3IvwBA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYOAXaABwAHgCgAGuAogB8AiSAQUyLTIuMpgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>Atletico Madrid &amp; Plus500</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIos3fgP269gIVCXkqCh1mfgDXEAAYASAAEgIhF_D_BwE</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>473</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:96.0) Gecko/20100101 Firefox/96.0</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G474" s="2" t="n">
+        <v>44630.62791063658</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj00-qQ_br2AhUV0ZYKHdSCCOQYABAAGgJ0bA&amp;sig=AOD64_3X96_zvysyaMJL6zTrmqM5OSKe9w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=5aIpYpLmJKqxmAW-96ewBg&amp;iflsig=AHkkrS4AAAAAYimw9RcDVB3CE9HOCBageAQD9HsniJAu&amp;ved=0ahUKEwjS7O-O_br2AhWqGKYKHb77CWYQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYOgXaABwAHgBgAFviAGXA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI9NPqkP269gIVFdGWCh3UggjkEAAYASAAEgI9N_D_BwE</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>474</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G475" s="2" t="n">
+        <v>44630.62858039352</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj1qdus_br2AhWXdmAKHVhxAHcYABABGgJ0bQ&amp;ae=2&amp;sig=AOD64_36JKitwxCdO4zbw_e4kly5d-EQUw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=IKMpYqrqCJHDmAXLzKO4Cg&amp;iflsig=AHkkrS4AAAAAYimxMDoqkW-auMwJXK0iTo83RRxixGXj&amp;ved=0ahUKEwiq-uSq_br2AhWRIaYKHUvmCKcQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYO4XaABwAHgAgAFuiAGZA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI9anbrP269gIVl3ZgCh1YcQB3EAAYASAAEgKOpfD_BwE</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>475</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G476" s="2" t="n">
+        <v>44630.6345737963</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjTkNOj_7r2AhUBy5YKHRe7BFIYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1UYQk_H3f_J1fj9uvPS8GBIe8HYQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=JaUpYtbsNIyK0wTQzY3gCg&amp;iflsig=AHkkrS4AAAAAYimzNSubkLxnrGjprbxEMsv4TzZMxENB&amp;ved=0ahUKEwiWk9Sh_7r2AhUMxZQKHdBmA6wQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYOwXaABwAHgBgAFyiAGlA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI05DTo_-69gIVAcuWCh0XuwRSEAAYASAAEgLiDfD_BwE</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>476</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Pixel 5) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/84.0.4147.111 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G477" s="2" t="n">
+        <v>44630.63837351852</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiompLAgLv2AhWJXWAKHbjhAg0YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3p8c6R_wl3UHAla34bjM0z_sqWdQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=bqYpYrjiCaOGr7wP8ckk&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOcXaABwAHgBgAFhiAHpApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIqJqSwIC79gIViV1gCh244QINEAAYASAAEgJlsvD_BwE</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>477</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; moto g(10) power Build/RRBS31.Q1-3-34-1-2; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/89.0.4389.105 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G478" s="2" t="n">
+        <v>44630.63881459491</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjVsIvSgLv2AhXTqpYKHX-FACoYABABGgJ0bA&amp;ae=2&amp;sig=AOD64_1VVitqHIsGYqsBiXrS9c_-ROA64A&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=k6YpYvnlIsGEr7wP3dmroAE&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOEXaABwAHgCgAFciAHlApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI1bCL0oC79gIV06qWCh1_hQAqEAAYASAAEgI-s_D_BwE</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>478</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G479" s="2" t="n">
+        <v>44630.64228491898</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiX3q7hgbv2AhWMTmAKHS07AgkYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1D4fFA0BdLZJuGY1fVfkz_es34oA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=wKcpYuCLEKLTmAWBiJ_wBw&amp;iflsig=AHkkrS4AAAAAYim10DyFwEaaJ4UXfZwkQpca5oBRGfBb&amp;ved=0ahUKEwjg67Xfgbv2AhWiKaYKHQHEB34Q4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYOAXaABwAHgBgAFyiAGqA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market - plus500.at</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIl96u4YG79gIVjE5gCh0tOwIJEAAYASAAEgLyBPD_BwE</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>479</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2045) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/74.0.3729.136 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G480" s="2" t="n">
+        <v>44630.64297627315</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj9kb_9gbv2AhWB0JYKHUe-BOAYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3tX2gEWE0i5RvN_qiSsX4Ey3XNmg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=-6cpYprEEqiNr7wPjeqJUA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNoXaABwAHgCgAFciAHjApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI_ZG__YG79gIVgdCWCh1HvgTgEAAYASAAEgIjNvD_BwE</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>480</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/97.0.4692.99 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G481" s="2" t="n">
+        <v>44630.65008263889</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi9nbyihLv2AhWCypYKHTTqB4cYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0lboz-p4Gh_zmV-qM2esiMqCMwTA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=YaopYuLEGeXVmAXnw7y4Dg&amp;iflsig=AHkkrS4AAAAAYim4cQZlwtaJKbTmEOgReuT4KBaZwa03&amp;ved=0ahUKEwii-bOghLv2AhXlKqYKHechD-cQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYNUXaABwAHgCgAF3iAG6A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIvZ28ooS79gIVgsqWCh006geHEAAYASAAEgKOoPD_BwE</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>481</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G482" s="2" t="n">
+        <v>44630.66091563657</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjn9Ongh7v2AhXZ1UwCHUgFBq4YABAAGgJ0bQ&amp;sig=AOD64_25MvzKnX_Ga7piKE5xSYoqLRDHzw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Ca4pYvKgJ4eVr7wP75uimAI&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYN0XaABwAHgBgAFliAHrApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI5_Tp4Ie79gIV2dVMAh1IBQauEAAYASAAEgI3z_D_BwE</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>482</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>hi-IN</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G483" s="2" t="n">
+        <v>44630.66407017361</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwip2tjiiLv2AhWD0ZYKHchpCOkYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3y4l9jWEtOvGCX7p8_jcnS_KCPPQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Gq8pYuepCcSXr7wPqtStuAg&amp;iflsig=AHkkrS4AAAAAYim9KtkfeVMaXEzL5lmG7qfjIDo5i7Bl&amp;ved=0ahUKEwjnnuPgiLv2AhXEy4sBHSpqC4cQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYPEXaABwAHgAgAFviAGdA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - Buy &amp; Sell Cryptocurrency CFDs</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIqdrY4oi79gIVg9GWCh3IaQjpEAAYASAAEgLWd_D_BwE</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>483</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G484" s="2" t="n">
+        <v>44630.66829782407</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwik8-WQirv2AhVB20wCHY2VCDMYABABGgJ0bQ&amp;sig=AOD64_1pOG3aRnCpNIPzILgBYmAKW8Vm_g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=h7ApYsqYEs6m0wT404fwAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNUXaABwAHgBgAFsiAGRA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - CFDs on BTC, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIpPPlkIq79gIVQdtMAh2NlQgzEAAYASAAEgJLgvD_BwE</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>484</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.45 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G485" s="2" t="n">
+        <v>44630.6713887037</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje4K2Qi7v2AhWBy5YKHW7RDTMYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3sIMUtyzL85---lDH5rmZnWX2gjw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=krEpYtbTMIqzmAXTxIGYDQ&amp;iflsig=AHkkrS4AAAAAYim_omerKTul9MZ_lTTN5y1MCp8b2mZP&amp;ved=0ahUKEwjW5LiOi7v2AhWKGaYKHVNiANMQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNcXaABwAHgBgAGCAYgB7AOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI3uCtkIu79gIVgcuWCh1u0Q0zEAAYASAAEgLrTPD_BwE</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>485</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; EML-AL00 Build/HUAWEIEML-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>sa-IN</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>sa-IN</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G486" s="2" t="n">
+        <v>44630.6720947338</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwizvr6ti7v2AhXLbioKHbecDLcYABAAGgJ0bQ&amp;sig=AOD64_2u5cGn2CnXZYg1Y1_VnaWTeiaA_g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=z7EpYpOALKnDmAWsuItI&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNwXaABwAHgAgAFriAGZA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Buy &amp; Sell Cryptocurrency CFDs</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIs76-rYu79gIVy24qCh23nAy3EAAYASAAEgLOjvD_BwE</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>486</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; BLA-AL00 Build/HUAWEIBLA-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G487" s="2" t="n">
+        <v>44630.67278059028</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwihxNDJi7v2AhVJq5YKHRlDCdsYABAAGgJ0bA&amp;sig=AOD64_0gmsjZFvEQ3zVPN1imigOoONmjVg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=CrIpYvvZKcmVr7wPwsqbiAo&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gMYOgXaABwAHgDgAFwiAGcA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIocTQyYu79gIVSauWCh0ZQwnbEAAYASAAEgLRhvD_BwE</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>487</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>gu-IN</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G488" s="2" t="n">
+        <v>44630.68028423611</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwikj_T-jbv2AhUJeYsKHex6AKoYABABGgJ0bQ&amp;sig=AOD64_1S_LTOtVhW0A4fqEnmbKX60XgVzg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=k7QpYt_yEo3VmAW7konoCA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYOEXaABwAHgCgAFxiAGnA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Crypto Trading App (CFD) - plus500.at</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIpI_0_o279gIVCXmLCh3segCqEAAYASAAEgLQsfD_BwE</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>488</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; EML-AL00 Build/HUAWEIEML-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>kn-IN</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G489" s="2" t="n">
+        <v>44630.68879251157</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjXyZzdkLv2AhUEaioKHRq1B8kYABAAGgJ0bQ&amp;sig=AOD64_0pSEIZSlsF39L8wraCBiwntRdXHA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=crcpYvRSlJv4BufJjoAK&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNEXaABwAHgBgAFqiAGPA5IBAzIuMpgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Bitcoin CFD Trading</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI18mc3ZC79gIVBGoqCh0atQfJEAAYASAAEgLhiPD_BwE</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>489</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; BLA-AL00 Build/HUAWEIBLA-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="n">
+        <v>44630.69166986111</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi76uvTkbv2AhXS1pYKHRzvDgYYABAAGgJ0bA&amp;sig=AOD64_3FMznAAunXOWmybzaQGkrNWFbb9w&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=argpYuH3HqOGr7wP8ckk&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gMYNoXaABwAHgCgAFiiAH9ApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements!</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIu-rr05G79gIV0taWCh0c7w4GEAAYASAAEgIM3vD_BwE</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>490</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.55 Safari/537.36 Edg/96.0.1054.43</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="n">
+        <v>44630.69896892361</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwilnteAlLv2AhWEdmAKHY2oB7wYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3dpnTKCMcpoHEuWg3oJ87QEeHVkw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=4bopYtXiBMHemAX1lJOoAg&amp;iflsig=AHkkrS4AAAAAYinI8cMcWd1-f4ukKkbGNaAOgwihoCq3&amp;ved=0ahUKEwiV17P-k7v2AhVBL6YKHXXKBCUQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYPMXaABwAHgBgAFniAGAA5IBAzMuMZgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIpZ7XgJS79gIVhHZgCh2NqAe8EAAYASAAEgK-EvD_BwE</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>491</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="n">
+        <v>44630.69937773148</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiWxK2RlLv2AhVJaioKHe99AZIYABAAGgJ0bQ&amp;sig=AOD64_04QxMj0iUYugNi9_2Ur-frr04xng&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=BLspYra2Lo7U0gTUl72gDw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOkXaABwAHgCgAFsiAGqA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated Broker, 0 Commissions&amp;Tight Spreads...</t>
+        </is>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIlsStkZS79gIVSWoqCh3vfQGSEAAYASAAEgIfDvD_BwE</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>492</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="n">
+        <v>44630.69974902778</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjXo92glLv2AhUSt5YKHf8HDAoYABAAGgJ0bA&amp;sig=AOD64_2S21hHzuWLDy_uuycFXnQOPBv43g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=JLspYvj-IIHcmAWD55WIAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNUXaABwAHgAgAGFAogB8AeSAQMyLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>Real Time Index Rates</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI16PdoJS79gIVEreWCh3_BwwKEAAYASAAEgJB2fD_BwE</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>493</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="n">
+        <v>44630.70426458334</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjXwtHalbv2AhWHVWAKHX8kA3MYABADGgJ0bQ&amp;sig=AOD64_0c_PbvRxMbnfPL3qo2OvFiC6gb9w&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=qrwpYpnELO-Sr7wPlJ-C0AQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNMXaABwAHgBgAFuiAGpA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>Live Market Price Alerts</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI18LR2pW79gIVh1VgCh1_JANzEAAYASAAEgISrvD_BwE</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>494</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="n">
+        <v>44630.70864166666</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiAj4ePl7v2AhVLaioKHRXPDr4YABAAGgJ0bQ&amp;sig=AOD64_2ky2w1Cso6wzrh5tmA9P2ujzRttw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Jb4pYs-EEIb70gT2766wAQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYN8XaABwAHgBgAFiiAH7ApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Crypto Trading App (CFD) - plus500.at</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>World Markets ETFs</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIgI-Hj5e79gIVS2oqCh0Vzw6-EAAYASAAEgI0VPD_BwE</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>495</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="n">
+        <v>44630.70900855324</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi5r_idl7v2AhULupYKHZx6ACUYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1cMhEyaFs_hwOVy6JN-G3NNaSRQA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=RL4pYrurGruGr7wP6v2HqAU&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBVgMYOQXaABwAHgBgAFkiAGBA5IBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>Economic Calendar</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gbraid=0AAAAAD2rQn_4DenU3-_7CDYHlJqU35zRZ&amp;gclid=EAIaIQobChMIua_4nZe79gIVC7qWCh2cegAlEAAYASAAEgLMRfD_BwE</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>496</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G497" s="2" t="n">
+        <v>44630.7133980787</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiU74bTmLv2AhUOupYKHcnIADYYABAAGgJ0bA&amp;sig=AOD64_0Ahpj6uBzf0wmZmH8u2RAnM1ZIbw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=wL8pYsrFDorU0gSUl57gCQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYOIXaABwAHgBgAFfiAHxApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Seize the Market Volatility - plus500.at</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIlO-G05i79gIVDrqWCh3JyAA2EAAYASAAEgJdY_D_BwE</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>497</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2045) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/74.0.3729.136 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G498" s="2" t="n">
+        <v>44630.71908472222</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi_mJm9mrv2AhVMBWAKHd0rAMkYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3NogLp5_8t4Xddjfm7lwuBHSQKAw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=q8EpYsXRDJPY0ASF7KmoBg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYOUXaABwAHgCgAFkiAHqApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIv5iZvZq79gIVTAVgCh3dKwDJEAAYASAAEgJETvD_BwE</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>498</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 12_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/13.2b11866 Mobile/16A366 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G499" s="2" t="n">
+        <v>44630.71945252315</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjnjO7Mmrv2AhUBaioKHWaIAiQYABABGgJ0bQ&amp;ae=2&amp;sig=AOD64_0yoIJF46nlBZJ2xkEjt2hMO1b3_g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=y8EpYuaKHsCar7wP952w-AI&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOgXaABwAHgAgAFyiAGhA5IBAzIuMpgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated Broker, 0...</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI54zuzJq79gIVAWoqCh1miAIkEAAYASAAEgLBufD_BwE</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>499</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; HRY-AL00a Build/HONORHRY-AL00a) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G500" s="2" t="n">
+        <v>44630.72959429398</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi905zunbv2AhVKVGAKHfoNCU4YABAAGgJ0bQ&amp;sig=AOD64_0McXEkdHp1MCS7W2RF5GNHKg8NKA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=N8UpYvmeFdOXr7wP2pSN6Ag&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gHYN8XaABwAHgCgAF9iAGSA5IBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>恒生 外匯及貴金屬買賣服務 - 網上投資額低至HKD25,000</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>投資涉及風險，外匯及貴金屬買賣的虧損風險可以十分重大。服務及優惠附帶條款。 黃金買賣差價低至0.8美元。外匯買賣差價低至2點子。最高有機會獲贈250英鎊。豁免黃金交易佣金。</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>https://www.hangseng.com/cms/emkt/pmo/grp01/p27/chi/index.html?view=d2g?cid=Investment:RMT:sem:googlesem&amp;gclid=EAIaIQobChMIvdOc7p279gIVSlRgCh36DQlOEAAYASAAEgKGB_D_BwE&amp;gclsrc=aw.ds</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>500</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:95.0) Gecko/20100101 Firefox/95.0</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G501" s="2" t="n">
+        <v>44630.73474211805</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjL1YzCn7v2AhXSwRYFHXtMB88YABABGgJ0bA&amp;sig=AOD64_3blxaRPnqVwvXBUZhUsMIybZEACQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=88YpYo_pMon80gTe_56gAg&amp;iflsig=AHkkrS4AAAAAYinVA7Ev18teoZUG2oCepwimwZ8vrHDX&amp;ved=0ahUKEwjPrpjAn7v2AhUJvpQKHd6_ByQQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYOYXaABwAHgBgAF0iAG1A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - Buy &amp; Sell Cryptocurrency CFDs</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIy9WMwp-79gIV0sEWBR17TAfPEAAYASAAEgLgbvD_BwE</t>
+        </is>
+      </c>
+      <c r="M501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.35 Safari/537.36 Edg/96.0.1054.13</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>pa-IN</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G502" s="2" t="n">
+        <v>44630.75104920139</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiQ1YzipLv2AhUD2JYKHaZzAHAYABABGgJ0bA&amp;ae=2&amp;sig=AOD64_095fTEL1AS4wVJ5mvqHNCXly_1JA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=dMwpYuTCIs6Cr7wPtsy6gAg&amp;iflsig=AHkkrS4AAAAAYinahCzuLdqfqdGAIYYlswYOPrwMCjOk&amp;ved=0ahUKEwjkzPbfpLv2AhVOwYsBHTamDoAQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNoXaABwAHgCgAG_BIgB4RGSAQM1LTSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIkNWM4qS79gIVA9iWCh2mcwBwEAAYASAAEgJOOPD_BwE</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.15; rv:97.0) Gecko/20100101 Firefox/97.0</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G503" s="2" t="n">
+        <v>44630.75141231481</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiZqIrxpLv2AhUa3EwCHRiqD0sYABAAGgJ0bQ&amp;sig=AOD64_1jumNaJ1AYre1rDyhJqbs7jzHQYQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=lMwpYqinI-2umAW-yrOACQ&amp;iflsig=AHkkrS4AAAAAYinapEFXk1nGlGQrF5DeGaypt8xTZoTP&amp;ved=0ahUKEwiowZjvpLv2AhVtF6YKHT7lDJAQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNAXaABwAHgBgAFuiAGcA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMImaiK8aS79gIVGtxMAh0Yqg9LEAAYASAAEgLt7fD_BwE</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>503</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; ALP-AL00 Build/HUAWEIALP-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G504" s="2" t="n">
+        <v>44630.75964287037</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjV6aXEp7v2AhVSQ2AKHRpsAIsYABAAGgJ0bQ&amp;sig=AOD64_3q2XVDYIJvl1jCgzliqCOZVoso4w&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=W88pYtGLM4qUmAWE-6e4CQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNsXaABwAHgAgAF1iAGaA5IBAzIuMpgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI1emlxKe79gIVUkNgCh0abACLEAAYASAAEgI6qfD_BwE</t>
+        </is>
+      </c>
+      <c r="M504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>504</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.7113.93 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G505" s="2" t="n">
+        <v>44630.76036685185</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiprZDip7v2AhXJIWAKHVuFBYEYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1TSsFwK0cIh4jSy_b76EOhVFXaxA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=ms8pYoDZAZHU0gSmlJugBA&amp;iflsig=AHkkrS4AAAAAYindqtZgz7GmmdkPbd6G4zcC2x2uCY5z&amp;ved=0ahUKEwiAjoDgp7v2AhURqpQKHSbKBkQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgNYOgXaABwAHgDgAGjAogB3QSSAQUxLjIuMZgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIqa2Q4qe79gIVySFgCh1bhQWBEAAYASAAEgJDyfD_BwE</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.45 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>kok-IN</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G506" s="2" t="n">
+        <v>44630.76076253493</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjA5qLyp7v2AhWDqpYKHSDkCQ0YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0mEaEVg7jmG2pqa77-Ul-KFK5Qhg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=vM8pYszyDYKUr7wP2b-vwAg&amp;iflsig=AHkkrS4AAAAAYindzLkh3H0QO7kFOkXNmqsMhpDBIgj-&amp;ved=0ahUKEwjMwKfwp7v2AhUCyosBHdnfC4gQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYOgXaABwAHgBgAFyiAGnA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIwOai8qe79gIVg6qWCh0g5AkNEAAYASAAEgJ33fD_BwE</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
